--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/gonzalezgvictor_uniovi_es/Documents/Documentos/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="954" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFC404B-979C-488D-B6C5-10A0BB4822D3}"/>
+  <xr:revisionPtr revIDLastSave="958" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEF83DA-CC42-402F-BA6B-F0AC0634A8CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="434">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1812,9 +1812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,8 +6756,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6790,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>344</v>
       </c>
@@ -6803,11 +6803,9 @@
       <c r="D2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>344</v>
       </c>
@@ -6847,7 +6845,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>344</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>344</v>
       </c>
@@ -6887,7 +6885,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>344</v>
       </c>
@@ -7454,7 +7452,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
@@ -7474,7 +7472,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>345</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>345</v>
       </c>
@@ -7514,7 +7512,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -7534,7 +7532,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -7554,7 +7552,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -7571,7 +7569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>345</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>345</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>345</v>
       </c>
@@ -7631,7 +7629,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -7651,7 +7649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -7671,7 +7669,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>345</v>
       </c>
@@ -7691,7 +7689,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>345</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>345</v>
       </c>
@@ -7729,7 +7727,7 @@
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>345</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -7829,7 +7827,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>345</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>345</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>345</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>345</v>
       </c>
@@ -7927,7 +7925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -7947,7 +7945,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>345</v>
       </c>
@@ -7967,7 +7965,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -7987,7 +7985,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -8033,12 +8031,6 @@
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="V39"/>
-        <filter val="V39, R55"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/gonzalezgvictor_uniovi_es/Documents/Documentos/GitHub/manmade/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Documentos\GitHub\manmade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="958" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEF83DA-CC42-402F-BA6B-F0AC0634A8CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5D4A6-7B74-4193-93E3-D21BC390B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -1507,10 +1507,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6757,7 +6753,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6786,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>344</v>
       </c>
@@ -6805,7 +6801,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>344</v>
       </c>
@@ -6845,7 +6841,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>344</v>
       </c>
@@ -6865,7 +6861,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>344</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6905,7 +6901,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>344</v>
       </c>
@@ -7452,7 +7448,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
@@ -7472,7 +7468,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>345</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>345</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -7532,7 +7528,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -7569,7 +7565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>345</v>
       </c>
@@ -7589,7 +7585,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>345</v>
       </c>
@@ -7609,7 +7605,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>345</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -7649,7 +7645,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -7669,7 +7665,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>345</v>
       </c>
@@ -7689,7 +7685,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>345</v>
       </c>
@@ -7709,7 +7705,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>345</v>
       </c>
@@ -7747,7 +7743,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>345</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>345</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>345</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>345</v>
       </c>
@@ -7847,7 +7843,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>345</v>
       </c>
@@ -7865,7 +7861,7 @@
       </c>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>345</v>
       </c>
@@ -7885,7 +7881,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>345</v>
       </c>
@@ -7925,7 +7921,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -7945,7 +7941,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>345</v>
       </c>
@@ -7965,7 +7961,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -8005,7 +8001,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -8031,6 +8027,15 @@
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="V11, V12, V13"/>
+        <filter val="V11, V12, V13, V15"/>
+        <filter val="V11, V13"/>
+        <filter val="V12, V13"/>
+        <filter val="V15, V37, V38"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Documentos\GitHub\manmade\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/gonzalezgvictor_uniovi_es/Documents/Documentos/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5D4A6-7B74-4193-93E3-D21BC390B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{97B5D4A6-7B74-4193-93E3-D21BC390B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9EC0A3-C9D8-4D73-B927-3934DB11B66F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Alliances EUNIS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alliances EUNIS'!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alliances EUNIS'!$F$1:$F$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$F$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1507,6 +1507,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6753,17 +6757,17 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8022,14 +8026,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+  <autoFilter ref="F1:F68" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="0">
-      <filters>
-        <filter val="?"/>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
       <filters>
         <filter val="V11, V12, V13"/>
         <filter val="V11, V12, V13, V15"/>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="954" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFC404B-979C-488D-B6C5-10A0BB4822D3}"/>
+  <xr:revisionPtr revIDLastSave="956" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2BCB93-031F-4A08-85DE-4FB8C05FBCBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -1812,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
@@ -6756,8 +6756,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6790,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>344</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>344</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>344</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>344</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>344</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>345</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>345</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>345</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>345</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>345</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>345</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>345</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>345</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>345</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>345</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>345</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>345</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>345</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>345</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>345</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -8033,12 +8033,6 @@
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="V39"/>
-        <filter val="V39, R55"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="956" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2BCB93-031F-4A08-85DE-4FB8C05FBCBA}"/>
+  <xr:revisionPtr revIDLastSave="1109" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF05BA50-D9D5-4356-9DBD-FC3C84D2169B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="14820" yWindow="510" windowWidth="13035" windowHeight="15435" firstSheet="1" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
     <sheet name="Descriptions" sheetId="3" r:id="rId2"/>
     <sheet name="Alliances EUNIS" sheetId="4" r:id="rId3"/>
+    <sheet name="Groups" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alliances EUNIS'!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alliances EUNIS'!$A$1:$G$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$F$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="492">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1344,6 +1345,180 @@
   </si>
   <si>
     <t>V39, R55</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Syntaxon</t>
+  </si>
+  <si>
+    <t>EUNIS_code</t>
+  </si>
+  <si>
+    <t>EUNIS_name</t>
+  </si>
+  <si>
+    <t>Q51</t>
+  </si>
+  <si>
+    <t>Arundini donacis-Convolvuletum sepium*</t>
+  </si>
+  <si>
+    <t>Tall-helophyte bed</t>
+  </si>
+  <si>
+    <t>V1a</t>
+  </si>
+  <si>
+    <t>Linario elegantis-Anthoxanthetum aristati; Tolpidi barbatae-Anthoxanthetum aristati</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Arable land and market gardens</t>
+  </si>
+  <si>
+    <t>V1b</t>
+  </si>
+  <si>
+    <t>V1c</t>
+  </si>
+  <si>
+    <t>Fumario capreolatae-Veronicetum persicae; Lamio amplexicaulis-Veronicetum hederifoliae</t>
+  </si>
+  <si>
+    <t>V31</t>
+  </si>
+  <si>
+    <t>Agriculturally-improved, re-seeded and heavily fertilised grassland, including sports fields and grass lawns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry mediterranean lands with unpalatable non-vernal herbaceous vegetation </t>
+  </si>
+  <si>
+    <t>Trampled mesophilous grasslands with annuals</t>
+  </si>
+  <si>
+    <t>Annual anthropogenic herbaceous vegetation</t>
+  </si>
+  <si>
+    <t>V38a</t>
+  </si>
+  <si>
+    <t>Carduo nutantis-Cirsietum chodati; Cirsio chodati-Carduetum cantabrici; Cirsio chodati-Carduetum carpetani</t>
+  </si>
+  <si>
+    <t>Dry perennial anthropogenic herbaceous vegetation</t>
+  </si>
+  <si>
+    <t>V38b</t>
+  </si>
+  <si>
+    <t>Cirsio chodati-Carduetum carpetani; Carduo carpetani-Onopordetum acanthii*</t>
+  </si>
+  <si>
+    <t>V38c</t>
+  </si>
+  <si>
+    <t>Helminthio echioidis-Melilotetum albae</t>
+  </si>
+  <si>
+    <t>V38d</t>
+  </si>
+  <si>
+    <t>Bromo diandri-Carduetum tenuiflori*</t>
+  </si>
+  <si>
+    <t>V39a</t>
+  </si>
+  <si>
+    <t>Geranio robertiani-Caryolophetum sempervirentis; Oxalido acetosellae-Geranietum robertiani</t>
+  </si>
+  <si>
+    <t>Mesic perennial anthropogenic herbaceous vegetation</t>
+  </si>
+  <si>
+    <t>V39b</t>
+  </si>
+  <si>
+    <t>Chenopodio bonihenrici-Senecionetum nebrodensis</t>
+  </si>
+  <si>
+    <t>V39c</t>
+  </si>
+  <si>
+    <t>V39d</t>
+  </si>
+  <si>
+    <t>V39e</t>
+  </si>
+  <si>
+    <t>Galio aparines-Conietum maculati*</t>
+  </si>
+  <si>
+    <t>V39f</t>
+  </si>
+  <si>
+    <t>Allio triquetri-Urticetum membranaceae*</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>Cymbalarietum muralis; Cymbalario-Trachelietum caerulei</t>
+  </si>
+  <si>
+    <t>J2.5*</t>
+  </si>
+  <si>
+    <t>Constructed boundaries</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>Reference syntaxa</t>
+  </si>
+  <si>
+    <t>Análisis y clasificación de la vegetación de Galicia (España), II. La vegetación herbácea</t>
+  </si>
+  <si>
+    <t>Caracterización edafica de los cardales {Onopordetea acanthii) y de las comunidades de malas hierbas de cultivos {Ruderali-Secalietea) de la provincia de León (NW de España) https://gredos.usal.es/bitstream/handle/10366/73686/Caracterizacion_edafica_de_los_cardales_.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>Vegetação escio-nitrófila vivaz (classe "Galio-Urticetea") do Noroeste de Portugal continental"Allio triquetri-Urticetum membranaceae" ass. Nova https://dialnet.unirioja.es/servlet/articulo?codigo=1348649</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis I</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis II</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis III</t>
+  </si>
+  <si>
+    <t>Sisymbrion officinalis I</t>
+  </si>
+  <si>
+    <t>Spergulo arvensis-Erodion cicutariae I</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Posible</t>
+  </si>
+  <si>
+    <t>Not Cantabrian</t>
+  </si>
+  <si>
+    <t>Not manmade</t>
+  </si>
+  <si>
+    <t>Sisymbrion officinalis II</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +1609,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1462,36 +1661,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,11 +2030,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +2067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>345</v>
       </c>
@@ -1866,7 +2087,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>345</v>
       </c>
@@ -1886,7 +2107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>343</v>
       </c>
@@ -1906,7 +2127,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>344</v>
       </c>
@@ -1926,7 +2147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>344</v>
       </c>
@@ -1946,7 +2167,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>343</v>
       </c>
@@ -1966,7 +2187,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -1986,7 +2207,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>345</v>
       </c>
@@ -2006,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>345</v>
       </c>
@@ -2026,7 +2247,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>345</v>
       </c>
@@ -2046,7 +2267,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -2066,7 +2287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>345</v>
       </c>
@@ -2086,7 +2307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
@@ -2106,7 +2327,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -2126,7 +2347,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -2146,7 +2367,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>345</v>
       </c>
@@ -2166,7 +2387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>345</v>
       </c>
@@ -2186,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>345</v>
       </c>
@@ -2206,7 +2427,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>345</v>
       </c>
@@ -2226,7 +2447,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -2246,7 +2467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>343</v>
       </c>
@@ -2266,7 +2487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>343</v>
       </c>
@@ -2286,7 +2507,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>343</v>
       </c>
@@ -2306,7 +2527,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>345</v>
       </c>
@@ -2326,7 +2547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>345</v>
       </c>
@@ -2346,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>343</v>
       </c>
@@ -2366,7 +2587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
@@ -2386,7 +2607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
@@ -2406,7 +2627,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
@@ -2426,7 +2647,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>345</v>
       </c>
@@ -2446,7 +2667,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>343</v>
       </c>
@@ -2466,7 +2687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>345</v>
       </c>
@@ -2486,7 +2707,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
@@ -2499,14 +2720,14 @@
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -2519,14 +2740,14 @@
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>343</v>
       </c>
@@ -2586,7 +2807,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -2606,7 +2827,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
@@ -2626,7 +2847,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>345</v>
       </c>
@@ -2646,7 +2867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>345</v>
       </c>
@@ -2666,7 +2887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -2686,7 +2907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -2699,14 +2920,14 @@
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -2719,14 +2940,14 @@
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>345</v>
       </c>
@@ -2739,14 +2960,14 @@
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>345</v>
       </c>
@@ -2759,14 +2980,14 @@
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>345</v>
       </c>
@@ -2779,14 +3000,14 @@
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -2799,14 +3020,14 @@
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>344</v>
       </c>
@@ -2826,7 +3047,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>344</v>
       </c>
@@ -2846,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>344</v>
       </c>
@@ -2866,7 +3087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>345</v>
       </c>
@@ -2886,7 +3107,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>345</v>
       </c>
@@ -2906,7 +3127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -2926,27 +3147,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="6" t="s">
         <v>331</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>343</v>
       </c>
@@ -2966,87 +3187,87 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>331</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>331</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="6" t="s">
         <v>331</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>331</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>343</v>
       </c>
@@ -3066,7 +3287,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>344</v>
       </c>
@@ -3076,17 +3297,17 @@
       <c r="C63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6" t="s">
         <v>430</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -3099,14 +3320,14 @@
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>345</v>
       </c>
@@ -3119,14 +3340,14 @@
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -3139,14 +3360,14 @@
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -3159,14 +3380,14 @@
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -3186,7 +3407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>345</v>
       </c>
@@ -3199,14 +3420,14 @@
       <c r="D69" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>343</v>
       </c>
@@ -3226,7 +3447,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>343</v>
       </c>
@@ -3246,7 +3467,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>345</v>
       </c>
@@ -3266,7 +3487,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>344</v>
       </c>
@@ -3286,7 +3507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>344</v>
       </c>
@@ -3306,7 +3527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>344</v>
       </c>
@@ -3326,7 +3547,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>344</v>
       </c>
@@ -3346,7 +3567,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>344</v>
       </c>
@@ -3366,7 +3587,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>344</v>
       </c>
@@ -3386,7 +3607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>344</v>
       </c>
@@ -3406,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>344</v>
       </c>
@@ -3426,7 +3647,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>345</v>
       </c>
@@ -3439,14 +3660,14 @@
       <c r="D81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>345</v>
       </c>
@@ -3459,14 +3680,14 @@
       <c r="D82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>345</v>
       </c>
@@ -3479,14 +3700,14 @@
       <c r="D83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>345</v>
       </c>
@@ -3499,14 +3720,14 @@
       <c r="D84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>345</v>
       </c>
@@ -3519,14 +3740,14 @@
       <c r="D85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>345</v>
       </c>
@@ -3539,14 +3760,14 @@
       <c r="D86" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>345</v>
       </c>
@@ -3559,14 +3780,14 @@
       <c r="D87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>345</v>
       </c>
@@ -3579,14 +3800,14 @@
       <c r="D88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>345</v>
       </c>
@@ -3599,14 +3820,14 @@
       <c r="D89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>345</v>
       </c>
@@ -3619,14 +3840,14 @@
       <c r="D90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>345</v>
       </c>
@@ -3639,14 +3860,14 @@
       <c r="D91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>345</v>
       </c>
@@ -3659,14 +3880,14 @@
       <c r="D92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>345</v>
       </c>
@@ -3686,7 +3907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>345</v>
       </c>
@@ -3706,7 +3927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>345</v>
       </c>
@@ -3726,7 +3947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>345</v>
       </c>
@@ -3746,7 +3967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>345</v>
       </c>
@@ -3766,7 +3987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>343</v>
       </c>
@@ -3786,7 +4007,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>343</v>
       </c>
@@ -3806,7 +4027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>343</v>
       </c>
@@ -3826,7 +4047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>345</v>
       </c>
@@ -3846,7 +4067,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>345</v>
       </c>
@@ -3866,7 +4087,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>345</v>
       </c>
@@ -3886,7 +4107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>345</v>
       </c>
@@ -3926,7 +4147,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>343</v>
       </c>
@@ -3946,7 +4167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>343</v>
       </c>
@@ -3966,7 +4187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>343</v>
       </c>
@@ -3986,7 +4207,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
@@ -4006,7 +4227,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>343</v>
       </c>
@@ -4026,7 +4247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>345</v>
       </c>
@@ -4046,7 +4267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>345</v>
       </c>
@@ -4066,7 +4287,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>345</v>
       </c>
@@ -4086,7 +4307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>343</v>
       </c>
@@ -4106,7 +4327,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>343</v>
       </c>
@@ -4126,7 +4347,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
@@ -4146,7 +4367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -4166,7 +4387,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>345</v>
       </c>
@@ -4186,7 +4407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>345</v>
       </c>
@@ -4206,7 +4427,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
@@ -4226,7 +4447,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>345</v>
       </c>
@@ -4246,7 +4467,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>345</v>
       </c>
@@ -4266,7 +4487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>345</v>
       </c>
@@ -4286,7 +4507,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>345</v>
       </c>
@@ -4306,7 +4527,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>345</v>
       </c>
@@ -4326,7 +4547,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>345</v>
       </c>
@@ -4346,7 +4567,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>345</v>
       </c>
@@ -4366,7 +4587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>345</v>
       </c>
@@ -4386,7 +4607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>343</v>
       </c>
@@ -4406,7 +4627,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>344</v>
       </c>
@@ -4419,14 +4640,14 @@
       <c r="D130" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="11" t="s">
         <v>331</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>344</v>
       </c>
@@ -4439,14 +4660,14 @@
       <c r="D131" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="11" t="s">
         <v>331</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>344</v>
       </c>
@@ -4459,14 +4680,14 @@
       <c r="D132" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="11" t="s">
         <v>331</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>344</v>
       </c>
@@ -4479,14 +4700,14 @@
       <c r="D133" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="11" t="s">
         <v>331</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>343</v>
       </c>
@@ -4506,7 +4727,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>343</v>
       </c>
@@ -4526,7 +4747,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>345</v>
       </c>
@@ -4546,7 +4767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>344</v>
       </c>
@@ -4566,7 +4787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>343</v>
       </c>
@@ -4586,7 +4807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>345</v>
       </c>
@@ -4599,14 +4820,14 @@
       <c r="D139" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>345</v>
       </c>
@@ -4619,14 +4840,14 @@
       <c r="D140" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>345</v>
       </c>
@@ -4639,14 +4860,14 @@
       <c r="D141" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>345</v>
       </c>
@@ -4659,14 +4880,14 @@
       <c r="D142" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>345</v>
       </c>
@@ -4679,14 +4900,14 @@
       <c r="D143" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>343</v>
       </c>
@@ -4706,7 +4927,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>343</v>
       </c>
@@ -4726,7 +4947,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>343</v>
       </c>
@@ -4746,7 +4967,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>345</v>
       </c>
@@ -4759,14 +4980,14 @@
       <c r="D147" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>345</v>
       </c>
@@ -4779,14 +5000,14 @@
       <c r="D148" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -4799,14 +5020,14 @@
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>345</v>
       </c>
@@ -4819,14 +5040,14 @@
       <c r="D150" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>345</v>
       </c>
@@ -4839,14 +5060,14 @@
       <c r="D151" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>345</v>
       </c>
@@ -4859,14 +5080,14 @@
       <c r="D152" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>345</v>
       </c>
@@ -4879,14 +5100,14 @@
       <c r="D153" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>345</v>
       </c>
@@ -4899,14 +5120,14 @@
       <c r="D154" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>345</v>
       </c>
@@ -4919,14 +5140,14 @@
       <c r="D155" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>345</v>
       </c>
@@ -4939,14 +5160,14 @@
       <c r="D156" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>345</v>
       </c>
@@ -4959,14 +5180,14 @@
       <c r="D157" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>345</v>
       </c>
@@ -4979,14 +5200,14 @@
       <c r="D158" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -4999,14 +5220,14 @@
       <c r="D159" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>345</v>
       </c>
@@ -5019,14 +5240,14 @@
       <c r="D160" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>345</v>
       </c>
@@ -5039,14 +5260,14 @@
       <c r="D161" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>345</v>
       </c>
@@ -5059,14 +5280,14 @@
       <c r="D162" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>345</v>
       </c>
@@ -5079,14 +5300,14 @@
       <c r="D163" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>345</v>
       </c>
@@ -5099,14 +5320,14 @@
       <c r="D164" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>345</v>
       </c>
@@ -5119,14 +5340,14 @@
       <c r="D165" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -5139,14 +5360,14 @@
       <c r="D166" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>345</v>
       </c>
@@ -5159,14 +5380,14 @@
       <c r="D167" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
@@ -5179,14 +5400,14 @@
       <c r="D168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>345</v>
       </c>
@@ -5199,14 +5420,14 @@
       <c r="D169" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>345</v>
       </c>
@@ -5219,14 +5440,14 @@
       <c r="D170" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -5239,14 +5460,14 @@
       <c r="D171" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>345</v>
       </c>
@@ -5259,14 +5480,14 @@
       <c r="D172" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>345</v>
       </c>
@@ -5279,14 +5500,14 @@
       <c r="D173" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -5299,14 +5520,14 @@
       <c r="D174" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>345</v>
       </c>
@@ -5319,14 +5540,14 @@
       <c r="D175" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>343</v>
       </c>
@@ -5346,7 +5567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>343</v>
       </c>
@@ -5366,7 +5587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>343</v>
       </c>
@@ -5386,7 +5607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>343</v>
       </c>
@@ -5406,7 +5627,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>345</v>
       </c>
@@ -5419,14 +5640,14 @@
       <c r="D180" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="11" t="s">
         <v>268</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>345</v>
       </c>
@@ -5446,7 +5667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>345</v>
       </c>
@@ -5466,7 +5687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>345</v>
       </c>
@@ -5486,7 +5707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>345</v>
       </c>
@@ -5506,7 +5727,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>345</v>
       </c>
@@ -5526,7 +5747,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>345</v>
       </c>
@@ -5539,14 +5760,14 @@
       <c r="D186" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>345</v>
       </c>
@@ -5559,14 +5780,14 @@
       <c r="D187" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>345</v>
       </c>
@@ -5579,14 +5800,14 @@
       <c r="D188" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>345</v>
       </c>
@@ -5599,14 +5820,14 @@
       <c r="D189" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>345</v>
       </c>
@@ -5619,14 +5840,14 @@
       <c r="D190" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>345</v>
       </c>
@@ -5639,14 +5860,14 @@
       <c r="D191" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>345</v>
       </c>
@@ -5659,14 +5880,14 @@
       <c r="D192" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>345</v>
       </c>
@@ -5679,14 +5900,14 @@
       <c r="D193" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>345</v>
       </c>
@@ -5699,14 +5920,14 @@
       <c r="D194" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>345</v>
       </c>
@@ -5719,14 +5940,14 @@
       <c r="D195" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>345</v>
       </c>
@@ -5739,14 +5960,14 @@
       <c r="D196" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>345</v>
       </c>
@@ -5759,14 +5980,14 @@
       <c r="D197" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>345</v>
       </c>
@@ -5779,14 +6000,14 @@
       <c r="D198" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>345</v>
       </c>
@@ -5799,14 +6020,14 @@
       <c r="D199" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>345</v>
       </c>
@@ -5819,14 +6040,14 @@
       <c r="D200" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>345</v>
       </c>
@@ -5839,14 +6060,14 @@
       <c r="D201" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>345</v>
       </c>
@@ -5859,14 +6080,14 @@
       <c r="D202" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>345</v>
       </c>
@@ -5879,14 +6100,14 @@
       <c r="D203" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>345</v>
       </c>
@@ -5899,14 +6120,14 @@
       <c r="D204" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>345</v>
       </c>
@@ -5919,14 +6140,14 @@
       <c r="D205" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>345</v>
       </c>
@@ -5939,14 +6160,14 @@
       <c r="D206" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>345</v>
       </c>
@@ -5966,7 +6187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>345</v>
       </c>
@@ -5986,7 +6207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>345</v>
       </c>
@@ -6006,7 +6227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>345</v>
       </c>
@@ -6026,7 +6247,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>345</v>
       </c>
@@ -6046,7 +6267,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>343</v>
       </c>
@@ -6066,7 +6287,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>343</v>
       </c>
@@ -6086,7 +6307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>343</v>
       </c>
@@ -6106,7 +6327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>343</v>
       </c>
@@ -6126,7 +6347,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>343</v>
       </c>
@@ -6146,7 +6367,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>343</v>
       </c>
@@ -6166,7 +6387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>343</v>
       </c>
@@ -6186,7 +6407,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>343</v>
       </c>
@@ -6206,7 +6427,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>343</v>
       </c>
@@ -6226,7 +6447,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>343</v>
       </c>
@@ -6246,7 +6467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>344</v>
       </c>
@@ -6266,7 +6487,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>343</v>
       </c>
@@ -6286,7 +6507,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>343</v>
       </c>
@@ -6306,7 +6527,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>343</v>
       </c>
@@ -6327,7 +6548,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F225" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}"/>
+  <autoFilter ref="A1:F225" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="?"/>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Caucalidion"/>
+        <filter val="Linario polygalifoliae-Vulpion alopecuri"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F225">
     <sortCondition ref="E2:E225"/>
     <sortCondition ref="B2:B225"/>
@@ -6754,1294 +6988,1936 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
         <v>342</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>310</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>309</v>
       </c>
-      <c r="E1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F52" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D53" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E53" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F53" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G53" s="28" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E61" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F61" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D62" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E62" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F62" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G62" s="27" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="F8" s="10" t="s">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="17" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="17" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+  <autoFilter ref="A1:G68" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="0">
+      <filters>
+        <filter val="Posible"/>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E225">
-    <sortCondition ref="A2:A225"/>
-    <sortCondition ref="B2:B225"/>
-    <sortCondition ref="C2:C225"/>
-    <sortCondition ref="D2:D225"/>
-    <sortCondition ref="E2:E225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G66">
+    <sortCondition ref="G2:G68"/>
+    <sortCondition ref="E2:E68"/>
+    <sortCondition ref="F2:F68"/>
+    <sortCondition ref="B2:B68"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7575A87-A6A9-4DFE-9B90-1BD64EF40982}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="98.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1109" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF05BA50-D9D5-4356-9DBD-FC3C84D2169B}"/>
+  <xr:revisionPtr revIDLastSave="1113" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C995A7F9-309F-486E-A8BD-9FD7502E932D}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="510" windowWidth="13035" windowHeight="15435" firstSheet="1" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -1661,7 +1661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1707,11 +1707,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6990,8 +6987,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7148,7 +7145,7 @@
         <v>488</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>345</v>
@@ -7157,14 +7154,12 @@
         <v>65</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>426</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -8073,7 +8068,7 @@
         <v>488</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>345</v>
@@ -8082,13 +8077,13 @@
         <v>65</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8096,7 +8091,7 @@
         <v>488</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>345</v>
@@ -8105,13 +8100,13 @@
         <v>65</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>423</v>
+        <v>77</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8186,7 +8181,7 @@
         <v>488</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>345</v>
@@ -8195,12 +8190,12 @@
         <v>65</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" s="25" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8391,7 +8386,7 @@
         <v>488</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>345</v>
@@ -8400,13 +8395,13 @@
         <v>65</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8414,7 +8409,7 @@
         <v>488</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>345</v>
@@ -8423,13 +8418,13 @@
         <v>65</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,7 +8432,7 @@
         <v>488</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>345</v>
@@ -8446,12 +8441,14 @@
         <v>65</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="31"/>
+        <v>96</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
@@ -8514,8 +8511,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G66">
-    <sortCondition ref="G2:G68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G68">
     <sortCondition ref="E2:E68"/>
     <sortCondition ref="F2:F68"/>
     <sortCondition ref="B2:B68"/>
@@ -8528,8 +8524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7575A87-A6A9-4DFE-9B90-1BD64EF40982}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1113" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C995A7F9-309F-486E-A8BD-9FD7502E932D}"/>
+  <xr:revisionPtr revIDLastSave="1354" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA4B77A-4D89-4903-83EA-5D4D3EF2C72F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
-    <sheet name="Descriptions" sheetId="3" r:id="rId2"/>
-    <sheet name="Alliances EUNIS" sheetId="4" r:id="rId3"/>
-    <sheet name="Groups" sheetId="5" r:id="rId4"/>
+    <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
+    <sheet name="Alianzas Rivas" sheetId="7" r:id="rId2"/>
+    <sheet name="Class synonyms" sheetId="6" r:id="rId3"/>
+    <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId4"/>
+    <sheet name="Descriptions" sheetId="3" r:id="rId5"/>
+    <sheet name="Alliances EUNIS" sheetId="4" r:id="rId6"/>
+    <sheet name="Groups" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alliances EUNIS'!$A$1:$G$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$F$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alliances EUNIS'!$A$1:$J$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sintaxones SIVIM'!$A$1:$F$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="550">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1503,12 +1506,6 @@
     <t>Sisymbrion officinalis I</t>
   </si>
   <si>
-    <t>Spergulo arvensis-Erodion cicutariae I</t>
-  </si>
-  <si>
-    <t>Used</t>
-  </si>
-  <si>
     <t>Posible</t>
   </si>
   <si>
@@ -1519,6 +1516,186 @@
   </si>
   <si>
     <t>Sisymbrion officinalis II</t>
+  </si>
+  <si>
+    <t>Class Mucina</t>
+  </si>
+  <si>
+    <t>Bidentetea tripartitae</t>
+  </si>
+  <si>
+    <t>Polygono arenastri-Poëtea annuae</t>
+  </si>
+  <si>
+    <t>Epilobietea angustifolii + Galio-Urticetea</t>
+  </si>
+  <si>
+    <t>Stellarietea mediae</t>
+  </si>
+  <si>
+    <t>Cymbalario muralis-Parietarietea judaicae</t>
+  </si>
+  <si>
+    <t>Absent in CZ</t>
+  </si>
+  <si>
+    <t>Class Pladias</t>
+  </si>
+  <si>
+    <t>Parietarietea</t>
+  </si>
+  <si>
+    <t>Class Rivas</t>
+  </si>
+  <si>
+    <t>Galio-Urticetea</t>
+  </si>
+  <si>
+    <t>Dauco carotae-Melilotion albi</t>
+  </si>
+  <si>
+    <t>Elytrigion athericae</t>
+  </si>
+  <si>
+    <t>Brassicion oleraceae</t>
+  </si>
+  <si>
+    <t>Carici piluliferae-Epilobion angustifolii</t>
+  </si>
+  <si>
+    <t>Matricario-Polygonion arenastri</t>
+  </si>
+  <si>
+    <t>Sclerochloo durae-Coronopodion squamati</t>
+  </si>
+  <si>
+    <t>Echio plantaginei-Galactition tomentosae</t>
+  </si>
+  <si>
+    <t>Galio aparines-Alliarion petiolatae</t>
+  </si>
+  <si>
+    <t>Filipendulion ulmariae</t>
+  </si>
+  <si>
+    <t>Bromo ramosi-Eupatorion cannabini</t>
+  </si>
+  <si>
+    <t>Parietario judaicae-Centranthion rubri</t>
+  </si>
+  <si>
+    <t>Cymbalario muralis-Asplenion quadrivalentis</t>
+  </si>
+  <si>
+    <t>Asplenion marini</t>
+  </si>
+  <si>
+    <t>Convolvulo arvensis-Elytrigion repentis</t>
+  </si>
+  <si>
+    <t>Urtico piluliferae-Sylibion mariani</t>
+  </si>
+  <si>
+    <t>Atropion belladonae</t>
+  </si>
+  <si>
+    <t>Caucalidion platycarpi</t>
+  </si>
+  <si>
+    <t>Taniathero-Aegilopion geniculatae</t>
+  </si>
+  <si>
+    <t>Impatienti noli-tangere-Stachyon sylvaticae</t>
+  </si>
+  <si>
+    <t>Sambucion ebuli</t>
+  </si>
+  <si>
+    <t>Alliance Rivas</t>
+  </si>
+  <si>
+    <t>Convolvulo arvensis-Agropyrion repentis</t>
+  </si>
+  <si>
+    <t>Artemisetea</t>
+  </si>
+  <si>
+    <t>Bromo-Oryzopsion miliaceae</t>
+  </si>
+  <si>
+    <t>Mediterránea</t>
+  </si>
+  <si>
+    <t>Chenopodion rubri</t>
+  </si>
+  <si>
+    <t>En la fitosociología española descrita sólo una asoc en Granada</t>
+  </si>
+  <si>
+    <t>Paspalo-Agrostion semiverticillati</t>
+  </si>
+  <si>
+    <t>Fundamentalmente Med, alcanza rías cántabro-atlánticas</t>
+  </si>
+  <si>
+    <t>Epilobietea</t>
+  </si>
+  <si>
+    <t>Añadir inventarios</t>
+  </si>
+  <si>
+    <t>Fragarion vescae</t>
+  </si>
+  <si>
+    <t>Oxalidion europeae</t>
+  </si>
+  <si>
+    <t>Papaveretea</t>
+  </si>
+  <si>
+    <t>Rivas considera parte de Polygono-Chenopodion polyspermi (= Spergulo-Erodion)</t>
+  </si>
+  <si>
+    <t>Malvion neglectae</t>
+  </si>
+  <si>
+    <t>Sysymbrietea</t>
+  </si>
+  <si>
+    <t>Falta en Rivas</t>
+  </si>
+  <si>
+    <t>Agropyretalia intermedio-repentis</t>
+  </si>
+  <si>
+    <t>Paspalo-Heleochloetalia</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>No relationship</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>Manmade</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Carduo carpetani-Cirsion odontolepidis NOT CANT</t>
+  </si>
+  <si>
+    <t>Echio-Galactition tomentosae NOT CANT</t>
+  </si>
+  <si>
+    <t>Spergulo arvensis-Erodion cicutariae I CHECK OXALIDION</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -1560,13 +1737,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,18 +1801,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1661,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1682,33 +1850,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2026,13 +2180,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F91777E-0BA6-4677-A812-6CC641298500}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D17828-3820-4A00-88FA-0D33D3D992E4}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80233A6C-CB07-41D9-B599-2D77532E244E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,27 +2757,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>345</v>
       </c>
@@ -2092,16 +2785,16 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2124,44 +2817,44 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>389</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2184,7 +2877,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -2192,19 +2885,19 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>92</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>345</v>
       </c>
@@ -2212,19 +2905,19 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>345</v>
       </c>
@@ -2232,19 +2925,19 @@
         <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>345</v>
       </c>
@@ -2252,19 +2945,19 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -2272,19 +2965,19 @@
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>345</v>
       </c>
@@ -2292,19 +2985,19 @@
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
@@ -2312,19 +3005,19 @@
         <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -2332,19 +3025,19 @@
         <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -2352,19 +3045,19 @@
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>345</v>
       </c>
@@ -2372,19 +3065,19 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>345</v>
       </c>
@@ -2392,19 +3085,19 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>345</v>
       </c>
@@ -2412,19 +3105,19 @@
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>345</v>
       </c>
@@ -2432,19 +3125,19 @@
         <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -2452,16 +3145,16 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2524,7 +3217,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>345</v>
       </c>
@@ -2532,19 +3225,19 @@
         <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>345</v>
       </c>
@@ -2552,16 +3245,16 @@
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2584,7 +3277,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
@@ -2592,19 +3285,19 @@
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
@@ -2612,19 +3305,19 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
@@ -2632,19 +3325,19 @@
         <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>345</v>
       </c>
@@ -2652,16 +3345,16 @@
         <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2684,7 +3377,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>345</v>
       </c>
@@ -2692,19 +3385,19 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>268</v>
+        <v>99</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
@@ -2712,19 +3405,19 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -2737,11 +3430,11 @@
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>20</v>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2772,16 +3465,16 @@
         <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,119 +3485,119 @@
         <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -2912,19 +3605,19 @@
         <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -2932,19 +3625,19 @@
         <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>345</v>
       </c>
@@ -2952,19 +3645,19 @@
         <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>345</v>
       </c>
@@ -2972,19 +3665,19 @@
         <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>345</v>
       </c>
@@ -2992,19 +3685,19 @@
         <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -3012,79 +3705,79 @@
         <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>345</v>
       </c>
@@ -3092,19 +3785,19 @@
         <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>345</v>
       </c>
@@ -3112,19 +3805,19 @@
         <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -3132,36 +3825,36 @@
         <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>254</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3184,84 +3877,84 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>204</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3284,27 +3977,27 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -3312,19 +4005,19 @@
         <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>345</v>
       </c>
@@ -3332,19 +4025,19 @@
         <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -3352,19 +4045,19 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -3372,19 +4065,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -3392,19 +4085,19 @@
         <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>345</v>
       </c>
@@ -3412,16 +4105,16 @@
         <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3464,7 +4157,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>345</v>
       </c>
@@ -3472,459 +4165,459 @@
         <v>65</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>315</v>
+        <v>66</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B85" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="B86" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="B87" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="B88" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="B89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>80</v>
+      <c r="B90" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>80</v>
+        <v>331</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>345</v>
       </c>
@@ -3932,19 +4625,19 @@
         <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>345</v>
       </c>
@@ -3952,19 +4645,19 @@
         <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>345</v>
       </c>
@@ -3972,16 +4665,16 @@
         <v>65</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4044,7 +4737,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>345</v>
       </c>
@@ -4052,19 +4745,19 @@
         <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>345</v>
       </c>
@@ -4072,19 +4765,19 @@
         <v>65</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>345</v>
       </c>
@@ -4092,19 +4785,19 @@
         <v>65</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>345</v>
       </c>
@@ -4112,16 +4805,16 @@
         <v>65</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4132,16 +4825,16 @@
         <v>65</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4244,7 +4937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>345</v>
       </c>
@@ -4252,19 +4945,19 @@
         <v>65</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>345</v>
       </c>
@@ -4272,19 +4965,19 @@
         <v>65</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>345</v>
       </c>
@@ -4292,16 +4985,16 @@
         <v>65</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4344,7 +5037,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
@@ -4361,10 +5054,10 @@
         <v>40</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -4381,30 +5074,30 @@
         <v>40</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>345</v>
       </c>
@@ -4412,19 +5105,19 @@
         <v>65</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
@@ -4432,19 +5125,19 @@
         <v>65</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>345</v>
       </c>
@@ -4452,19 +5145,19 @@
         <v>65</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>345</v>
       </c>
@@ -4472,19 +5165,19 @@
         <v>65</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>345</v>
       </c>
@@ -4492,19 +5185,19 @@
         <v>65</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>345</v>
       </c>
@@ -4512,19 +5205,19 @@
         <v>65</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>345</v>
       </c>
@@ -4532,19 +5225,19 @@
         <v>65</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>345</v>
       </c>
@@ -4552,19 +5245,19 @@
         <v>65</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>345</v>
       </c>
@@ -4572,19 +5265,19 @@
         <v>65</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>345</v>
       </c>
@@ -4592,16 +5285,16 @@
         <v>65</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4624,84 +5317,84 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>62</v>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>225</v>
+        <v>79</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4744,7 +5437,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>345</v>
       </c>
@@ -4752,36 +5445,36 @@
         <v>65</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>338</v>
+        <v>80</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4804,7 +5497,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>345</v>
       </c>
@@ -4812,19 +5505,19 @@
         <v>65</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>345</v>
       </c>
@@ -4832,19 +5525,19 @@
         <v>65</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>345</v>
       </c>
@@ -4852,19 +5545,19 @@
         <v>65</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>345</v>
       </c>
@@ -4872,19 +5565,19 @@
         <v>65</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>345</v>
       </c>
@@ -4892,16 +5585,16 @@
         <v>65</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4964,7 +5657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>345</v>
       </c>
@@ -4972,19 +5665,19 @@
         <v>65</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>345</v>
       </c>
@@ -4992,19 +5685,19 @@
         <v>65</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -5012,19 +5705,19 @@
         <v>65</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>345</v>
       </c>
@@ -5032,179 +5725,179 @@
         <v>65</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -5212,19 +5905,19 @@
         <v>65</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>42</v>
+        <v>316</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>345</v>
       </c>
@@ -5232,19 +5925,19 @@
         <v>65</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>345</v>
       </c>
@@ -5252,19 +5945,19 @@
         <v>65</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>345</v>
       </c>
@@ -5272,19 +5965,19 @@
         <v>65</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>345</v>
       </c>
@@ -5292,19 +5985,19 @@
         <v>65</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>345</v>
       </c>
@@ -5312,19 +6005,19 @@
         <v>65</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>345</v>
       </c>
@@ -5332,19 +6025,19 @@
         <v>65</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -5352,19 +6045,19 @@
         <v>65</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>345</v>
       </c>
@@ -5372,19 +6065,19 @@
         <v>65</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
@@ -5392,79 +6085,79 @@
         <v>65</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>345</v>
       </c>
@@ -5472,19 +6165,19 @@
         <v>65</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>345</v>
       </c>
@@ -5492,19 +6185,19 @@
         <v>65</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -5512,19 +6205,19 @@
         <v>65</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>345</v>
       </c>
@@ -5532,16 +6225,16 @@
         <v>65</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -5624,7 +6317,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>345</v>
       </c>
@@ -5632,19 +6325,19 @@
         <v>65</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>345</v>
       </c>
@@ -5655,196 +6348,196 @@
         <v>4</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="E189" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E190" s="11" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>345</v>
       </c>
@@ -5852,19 +6545,19 @@
         <v>65</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>345</v>
       </c>
@@ -5872,19 +6565,19 @@
         <v>65</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>345</v>
       </c>
@@ -5892,19 +6585,19 @@
         <v>65</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>345</v>
       </c>
@@ -5912,19 +6605,19 @@
         <v>65</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>345</v>
       </c>
@@ -5932,19 +6625,19 @@
         <v>65</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>345</v>
       </c>
@@ -5952,19 +6645,19 @@
         <v>65</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>345</v>
       </c>
@@ -5972,19 +6665,19 @@
         <v>65</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>345</v>
       </c>
@@ -5992,19 +6685,19 @@
         <v>65</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>345</v>
       </c>
@@ -6012,19 +6705,19 @@
         <v>65</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>345</v>
       </c>
@@ -6032,19 +6725,19 @@
         <v>65</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>345</v>
       </c>
@@ -6052,19 +6745,19 @@
         <v>65</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>345</v>
       </c>
@@ -6072,19 +6765,19 @@
         <v>65</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>345</v>
       </c>
@@ -6092,19 +6785,19 @@
         <v>65</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>345</v>
       </c>
@@ -6112,19 +6805,19 @@
         <v>65</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>345</v>
       </c>
@@ -6132,19 +6825,19 @@
         <v>65</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>345</v>
       </c>
@@ -6152,19 +6845,19 @@
         <v>65</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>345</v>
       </c>
@@ -6172,19 +6865,19 @@
         <v>65</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>345</v>
       </c>
@@ -6192,19 +6885,19 @@
         <v>65</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>345</v>
       </c>
@@ -6212,19 +6905,19 @@
         <v>65</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>345</v>
       </c>
@@ -6238,13 +6931,13 @@
         <v>102</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>345</v>
       </c>
@@ -6252,16 +6945,16 @@
         <v>65</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6464,24 +7157,24 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>246</v>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6552,12 +7245,9 @@
         <filter val="Yes"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Caucalidion"/>
-        <filter val="Linario polygalifoliae-Vulpion alopecuri"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F222">
+      <sortCondition descending="1" ref="E1:E225"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F225">
     <sortCondition ref="E2:E225"/>
@@ -6571,12 +7261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A09322D-87A1-4181-990C-35ABE2196247}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,475 +7672,477 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="B1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
         <v>308</v>
-      </c>
-      <c r="C1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" t="s">
-        <v>309</v>
       </c>
       <c r="G1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
+      <c r="A2" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>344</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="B21" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>89</v>
@@ -7458,1080 +8150,1176 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="B23" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="B24" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="B25" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B31" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B32" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="B33" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="B34" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D36" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="B37" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="B38" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>75</v>
+      <c r="A40" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>76</v>
+      <c r="A41" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>418</v>
+        <v>103</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>297</v>
+      <c r="A42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>540</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="G55" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="F59" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="G63" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="E64" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="18" t="s">
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B66" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>277</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>331</v>
+      </c>
+      <c r="G67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="23" t="s">
+      <c r="G70" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="E71" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B67" s="17" t="s">
+      <c r="F71" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="17" t="s">
+      <c r="G71" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B68" s="17" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" s="17" t="s">
+      <c r="G72" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+  <autoFilter ref="A1:J72" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Posible"/>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Missing"/>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G68">
-    <sortCondition ref="E2:E68"/>
-    <sortCondition ref="F2:F68"/>
-    <sortCondition ref="B2:B68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G72">
+    <sortCondition ref="D2:D72"/>
+    <sortCondition ref="E2:E72"/>
+    <sortCondition ref="B2:B72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7575A87-A6A9-4DFE-9B90-1BD64EF40982}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="98.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.85546875" customWidth="1"/>
   </cols>
@@ -8566,7 +9354,7 @@
       <c r="C2" t="s">
         <v>439</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="21" t="s">
         <v>438</v>
       </c>
       <c r="E2" t="s">
@@ -8586,7 +9374,7 @@
       <c r="C3" t="s">
         <v>442</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>443</v>
       </c>
       <c r="E3" t="s">
@@ -8597,13 +9385,13 @@
       <c r="A4" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>486</v>
+      <c r="B4" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="21" t="s">
         <v>443</v>
       </c>
       <c r="E4" t="s">
@@ -8614,13 +9402,13 @@
       <c r="A5" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>486</v>
+      <c r="B5" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>447</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>443</v>
       </c>
       <c r="E5" t="s">
@@ -8637,7 +9425,7 @@
       <c r="C6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="21" t="s">
         <v>448</v>
       </c>
       <c r="E6" t="s">
@@ -8648,13 +9436,13 @@
       <c r="A7" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>103</v>
+      <c r="B7" s="20" t="s">
+        <v>547</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>419</v>
       </c>
       <c r="E7" t="s">
@@ -8671,7 +9459,7 @@
       <c r="C8" t="s">
         <v>349</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>427</v>
       </c>
       <c r="E8" t="s">
@@ -8688,7 +9476,7 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="21" t="s">
         <v>421</v>
       </c>
       <c r="E9" t="s">
@@ -8705,7 +9493,7 @@
       <c r="C10" t="s">
         <v>454</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>418</v>
       </c>
       <c r="E10" t="s">
@@ -8716,13 +9504,13 @@
       <c r="A11" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
+      <c r="B11" s="20" t="s">
+        <v>546</v>
       </c>
       <c r="C11" t="s">
         <v>457</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="21" t="s">
         <v>418</v>
       </c>
       <c r="E11" t="s">
@@ -8742,7 +9530,7 @@
       <c r="C12" t="s">
         <v>459</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="21" t="s">
         <v>418</v>
       </c>
       <c r="E12" t="s">
@@ -8754,12 +9542,12 @@
         <v>460</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
         <v>461</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="21" t="s">
         <v>418</v>
       </c>
       <c r="E13" t="s">
@@ -8779,7 +9567,7 @@
       <c r="C14" t="s">
         <v>463</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E14" t="s">
@@ -8796,7 +9584,7 @@
       <c r="C15" t="s">
         <v>466</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E15" t="s">
@@ -8813,7 +9601,7 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E16" t="s">
@@ -8830,7 +9618,7 @@
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="22" t="s">
         <v>424</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -8847,7 +9635,7 @@
       <c r="C18" t="s">
         <v>470</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E18" t="s">
@@ -8867,7 +9655,7 @@
       <c r="C19" t="s">
         <v>472</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E19" t="s">
@@ -8887,7 +9675,7 @@
       <c r="C20" t="s">
         <v>474</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="21" t="s">
         <v>475</v>
       </c>
       <c r="E20" t="s">
@@ -8904,11 +9692,91 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="21" t="s">
         <v>475</v>
       </c>
       <c r="E21" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>549</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>549</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>549</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>549</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1354" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA4B77A-4D89-4903-83EA-5D4D3EF2C72F}"/>
+  <xr:revisionPtr revIDLastSave="1372" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683DD351-60D4-4DF5-90A4-991A312C4551}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
@@ -1829,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1852,9 +1852,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2184,7 +2181,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="A4" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2191,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>522</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2205,7 +2202,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>528</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2216,7 +2213,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2227,7 +2224,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>532</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -7678,7 +7675,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7734,7 +7731,7 @@
       <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7780,30 +7777,30 @@
       <c r="F4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8569,7 +8566,7 @@
       <c r="F41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="12" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8597,10 +8594,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C43" t="s">
@@ -8612,10 +8609,10 @@
       <c r="E43" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>542</v>
       </c>
     </row>
@@ -8661,15 +8658,15 @@
       <c r="F45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C46" t="s">
@@ -8681,18 +8678,18 @@
       <c r="E46" t="s">
         <v>540</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="20" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C47" t="s">
@@ -8704,18 +8701,18 @@
       <c r="E47" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="20" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C48" t="s">
@@ -8727,10 +8724,10 @@
       <c r="E48" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8753,7 +8750,7 @@
       <c r="F49" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="18"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -8797,7 +8794,7 @@
       <c r="F51" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8917,10 +8914,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C57" t="s">
@@ -8932,10 +8929,10 @@
       <c r="E57" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="20" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9027,15 +9024,15 @@
       <c r="F61" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="12" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C62" t="s">
@@ -9047,10 +9044,10 @@
       <c r="E62" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9073,7 +9070,7 @@
       <c r="F63" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="12" t="s">
         <v>432</v>
       </c>
     </row>
@@ -9096,7 +9093,7 @@
       <c r="F64" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="12" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9124,10 +9121,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C66" t="s">
@@ -9139,10 +9136,10 @@
       <c r="E66" t="s">
         <v>277</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="20" t="s">
         <v>427</v>
       </c>
     </row>
@@ -9192,34 +9189,34 @@
         <v>425</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>549</v>
       </c>
       <c r="C70" t="s">
@@ -9231,10 +9228,10 @@
       <c r="E70" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="20" t="s">
         <v>423</v>
       </c>
     </row>
@@ -9313,7 +9310,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A31"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,7 +9351,7 @@
       <c r="C2" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>438</v>
       </c>
       <c r="E2" t="s">
@@ -9374,7 +9371,7 @@
       <c r="C3" t="s">
         <v>442</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>443</v>
       </c>
       <c r="E3" t="s">
@@ -9385,13 +9382,13 @@
       <c r="A4" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>443</v>
       </c>
       <c r="E4" t="s">
@@ -9402,13 +9399,13 @@
       <c r="A5" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>443</v>
       </c>
       <c r="E5" t="s">
@@ -9425,7 +9422,7 @@
       <c r="C6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>448</v>
       </c>
       <c r="E6" t="s">
@@ -9436,13 +9433,13 @@
       <c r="A7" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>547</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>419</v>
       </c>
       <c r="E7" t="s">
@@ -9459,7 +9456,7 @@
       <c r="C8" t="s">
         <v>349</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>427</v>
       </c>
       <c r="E8" t="s">
@@ -9476,7 +9473,7 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>421</v>
       </c>
       <c r="E9" t="s">
@@ -9493,7 +9490,7 @@
       <c r="C10" t="s">
         <v>454</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>418</v>
       </c>
       <c r="E10" t="s">
@@ -9504,13 +9501,13 @@
       <c r="A11" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>546</v>
       </c>
       <c r="C11" t="s">
         <v>457</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>418</v>
       </c>
       <c r="E11" t="s">
@@ -9530,7 +9527,7 @@
       <c r="C12" t="s">
         <v>459</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>418</v>
       </c>
       <c r="E12" t="s">
@@ -9547,7 +9544,7 @@
       <c r="C13" t="s">
         <v>461</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>418</v>
       </c>
       <c r="E13" t="s">
@@ -9567,7 +9564,7 @@
       <c r="C14" t="s">
         <v>463</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E14" t="s">
@@ -9584,7 +9581,7 @@
       <c r="C15" t="s">
         <v>466</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E15" t="s">
@@ -9601,7 +9598,7 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E16" t="s">
@@ -9618,7 +9615,7 @@
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>424</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -9635,7 +9632,7 @@
       <c r="C18" t="s">
         <v>470</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E18" t="s">
@@ -9655,7 +9652,7 @@
       <c r="C19" t="s">
         <v>472</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>424</v>
       </c>
       <c r="E19" t="s">
@@ -9675,7 +9672,7 @@
       <c r="C20" t="s">
         <v>474</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>475</v>
       </c>
       <c r="E20" t="s">
@@ -9692,7 +9689,7 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>475</v>
       </c>
       <c r="E21" t="s">
@@ -9703,7 +9700,7 @@
       <c r="A22" t="s">
         <v>549</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9711,7 +9708,7 @@
       <c r="A23" t="s">
         <v>549</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9719,7 +9716,7 @@
       <c r="A24" t="s">
         <v>549</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9727,7 +9724,7 @@
       <c r="A25" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9735,7 +9732,7 @@
       <c r="A26" t="s">
         <v>549</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9743,7 +9740,7 @@
       <c r="A27" t="s">
         <v>549</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9751,7 +9748,7 @@
       <c r="A28" t="s">
         <v>549</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9759,7 +9756,7 @@
       <c r="A29" t="s">
         <v>549</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9767,7 +9764,7 @@
       <c r="A30" t="s">
         <v>549</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9775,7 +9772,7 @@
       <c r="A31" t="s">
         <v>549</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>95</v>
       </c>
     </row>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1372" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683DD351-60D4-4DF5-90A4-991A312C4551}"/>
+  <xr:revisionPtr revIDLastSave="1373" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07189870-F0DA-4CD3-8225-B52EE73D6CA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="13305" yWindow="165" windowWidth="13035" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
@@ -2720,9 +2720,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>344</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>345</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>345</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>345</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>345</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>345</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>345</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>345</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>345</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>345</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>345</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>345</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>345</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>345</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>345</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>345</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>345</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>345</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>345</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>345</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>345</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>345</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>345</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>345</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>345</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>345</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>345</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>345</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>345</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>345</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>345</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>345</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>345</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>345</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>345</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>345</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>345</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>345</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>345</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>345</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>345</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>345</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>345</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>345</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>345</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>345</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>345</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>345</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>345</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>345</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>344</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>345</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>344</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>344</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>344</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>344</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>344</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>344</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>344</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>344</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>344</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>344</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>344</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>345</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>345</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>345</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>344</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>345</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>345</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>345</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>345</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>345</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>345</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>345</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>345</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>345</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>345</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>345</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>345</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>345</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>345</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>345</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>345</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>345</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>345</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>345</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>345</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>345</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>345</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>345</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>344</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>344</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>344</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>344</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>344</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>344</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>344</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>344</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>345</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>345</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>345</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>345</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>345</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>345</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>345</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>344</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>344</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>344</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>345</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>345</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>345</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>345</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>345</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>345</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>345</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>345</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>345</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>345</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>345</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>345</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>345</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>345</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>345</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>345</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>345</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>345</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>345</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>345</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>345</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>345</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>345</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>345</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>345</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>345</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>345</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>345</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>345</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>345</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>345</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>345</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>345</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>345</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>345</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>345</v>
       </c>
@@ -7240,6 +7240,11 @@
       <filters>
         <filter val="?"/>
         <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Polygono-Coronopodion"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F222">
@@ -7674,8 +7679,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1373" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07189870-F0DA-4CD3-8225-B52EE73D6CA4}"/>
+  <xr:revisionPtr revIDLastSave="1380" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80BEA5FA-BEB0-40EA-8331-0BDB9EE0CE34}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="165" windowWidth="13035" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView minimized="1" xWindow="9630" yWindow="180" windowWidth="18585" windowHeight="15435" firstSheet="2" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>Arrhenatheretalia elatioris</t>
   </si>
   <si>
-    <t>Spergulo arvensis-Erodion cicutariae</t>
-  </si>
-  <si>
     <t>Eragrostietalia</t>
   </si>
   <si>
@@ -1696,6 +1693,9 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Oxalidion europaeae</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2181,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,24 +2192,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>523</v>
-      </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -2217,65 +2217,65 @@
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" t="s">
         <v>524</v>
-      </c>
-      <c r="B5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" t="s">
         <v>533</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>534</v>
-      </c>
-      <c r="C7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" t="s">
         <v>536</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>537</v>
-      </c>
-      <c r="C8" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -2299,10 +2299,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,12 +2366,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -2382,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,12 +2390,12 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2403,15 +2403,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -2419,71 +2419,71 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2491,23 +2491,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -2515,15 +2515,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2547,34 +2547,34 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -2602,13 +2602,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,21 +2638,21 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,10 +2660,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,32 +2671,32 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +2704,10 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2720,9 +2720,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,27 +2736,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>58</v>
@@ -2771,12 +2771,12 @@
         <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>65</v>
@@ -2785,38 +2785,38 @@
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>65</v>
@@ -2825,338 +2825,338 @@
         <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>58</v>
@@ -3168,15 +3168,15 @@
         <v>90</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -3188,15 +3188,15 @@
         <v>90</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>58</v>
@@ -3208,207 +3208,207 @@
         <v>90</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>549</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>549</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>65</v>
@@ -3436,27 +3436,27 @@
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>65</v>
@@ -3471,12 +3471,12 @@
         <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>65</v>
@@ -3491,12 +3491,12 @@
         <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>65</v>
@@ -3511,12 +3511,12 @@
         <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>65</v>
@@ -3531,12 +3531,12 @@
         <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>65</v>
@@ -3548,15 +3548,15 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>65</v>
@@ -3568,15 +3568,15 @@
         <v>9</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>65</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>65</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>65</v>
@@ -3631,12 +3631,12 @@
         <v>42</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>65</v>
@@ -3651,12 +3651,12 @@
         <v>42</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>65</v>
@@ -3671,12 +3671,12 @@
         <v>42</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>65</v>
@@ -3691,12 +3691,12 @@
         <v>42</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>65</v>
@@ -3711,12 +3711,12 @@
         <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>65</v>
@@ -3731,12 +3731,12 @@
         <v>42</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>65</v>
@@ -3751,12 +3751,12 @@
         <v>42</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>65</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>65</v>
@@ -3791,12 +3791,12 @@
         <v>42</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>65</v>
@@ -3811,12 +3811,12 @@
         <v>42</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>65</v>
@@ -3831,12 +3831,12 @@
         <v>42</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>65</v>
@@ -3851,12 +3851,12 @@
         <v>42</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>58</v>
@@ -3871,12 +3871,12 @@
         <v>89</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -3891,12 +3891,12 @@
         <v>42</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>65</v>
@@ -3911,12 +3911,12 @@
         <v>42</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>65</v>
@@ -3931,12 +3931,12 @@
         <v>42</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>65</v>
@@ -3951,12 +3951,12 @@
         <v>42</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>58</v>
@@ -3971,12 +3971,12 @@
         <v>89</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>65</v>
@@ -3991,12 +3991,12 @@
         <v>42</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
@@ -4011,12 +4011,12 @@
         <v>42</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
@@ -4031,12 +4031,12 @@
         <v>42</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -4051,12 +4051,12 @@
         <v>42</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
@@ -4071,12 +4071,12 @@
         <v>42</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>65</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>65</v>
@@ -4131,12 +4131,12 @@
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>65</v>
@@ -4151,12 +4151,12 @@
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>65</v>
@@ -4171,12 +4171,12 @@
         <v>42</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>65</v>
@@ -4191,12 +4191,12 @@
         <v>42</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>65</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>65</v>
@@ -4231,121 +4231,121 @@
         <v>42</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>24</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>58</v>
@@ -4365,18 +4365,18 @@
         <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>65</v>
@@ -4385,18 +4385,18 @@
         <v>64</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>58</v>
@@ -4408,15 +4408,15 @@
         <v>62</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>58</v>
@@ -4428,15 +4428,15 @@
         <v>62</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>58</v>
@@ -4448,15 +4448,15 @@
         <v>62</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>58</v>
@@ -4468,15 +4468,15 @@
         <v>62</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>58</v>
@@ -4488,7 +4488,7 @@
         <v>62</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>3</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>58</v>
@@ -4508,15 +4508,15 @@
         <v>62</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>58</v>
@@ -4528,15 +4528,15 @@
         <v>62</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>58</v>
@@ -4548,15 +4548,15 @@
         <v>62</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>58</v>
@@ -4568,15 +4568,15 @@
         <v>62</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -4588,15 +4588,15 @@
         <v>62</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>58</v>
@@ -4608,227 +4608,227 @@
         <v>62</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E99" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E100" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="1" t="s">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>22</v>
@@ -4836,47 +4836,47 @@
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>58</v>
@@ -4891,32 +4891,32 @@
         <v>59</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>58</v>
@@ -4925,67 +4925,67 @@
         <v>2</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>40</v>
@@ -4996,87 +4996,87 @@
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>58</v>
@@ -5085,18 +5085,18 @@
         <v>2</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>65</v>
@@ -5111,12 +5111,12 @@
         <v>75</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>65</v>
@@ -5131,12 +5131,12 @@
         <v>75</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>65</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>65</v>
@@ -5165,18 +5165,18 @@
         <v>74</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>65</v>
@@ -5185,18 +5185,18 @@
         <v>74</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>65</v>
@@ -5205,18 +5205,18 @@
         <v>74</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>65</v>
@@ -5225,18 +5225,18 @@
         <v>74</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>65</v>
@@ -5245,18 +5245,18 @@
         <v>74</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>65</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>65</v>
@@ -5296,27 +5296,27 @@
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>65</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>65</v>
@@ -5351,12 +5351,12 @@
         <v>55</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>65</v>
@@ -5371,12 +5371,12 @@
         <v>55</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>65</v>
@@ -5396,47 +5396,47 @@
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>65</v>
@@ -5451,12 +5451,12 @@
         <v>79</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>65</v>
@@ -5471,32 +5471,32 @@
         <v>79</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>65</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>65</v>
@@ -5531,12 +5531,12 @@
         <v>79</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>65</v>
@@ -5551,12 +5551,12 @@
         <v>79</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>65</v>
@@ -5571,12 +5571,12 @@
         <v>79</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>65</v>
@@ -5591,72 +5591,72 @@
         <v>79</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>65</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>65</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>65</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>65</v>
@@ -5731,12 +5731,12 @@
         <v>79</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>87</v>
@@ -5751,12 +5751,12 @@
         <v>84</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>87</v>
@@ -5771,12 +5771,12 @@
         <v>84</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>87</v>
@@ -5791,12 +5791,12 @@
         <v>84</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>87</v>
@@ -5811,12 +5811,12 @@
         <v>84</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>87</v>
@@ -5831,12 +5831,12 @@
         <v>84</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>87</v>
@@ -5851,12 +5851,12 @@
         <v>84</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>87</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>87</v>
@@ -5891,32 +5891,32 @@
         <v>84</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>65</v>
@@ -5925,10 +5925,10 @@
         <v>74</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E160" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>49</v>
@@ -5936,19 +5936,19 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>26</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>65</v>
@@ -5971,12 +5971,12 @@
         <v>69</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>65</v>
@@ -5991,12 +5991,12 @@
         <v>69</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>65</v>
@@ -6011,12 +6011,12 @@
         <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>65</v>
@@ -6031,12 +6031,12 @@
         <v>69</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>65</v>
@@ -6051,12 +6051,12 @@
         <v>72</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>65</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>65</v>
@@ -6091,12 +6091,12 @@
         <v>72</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>87</v>
@@ -6111,12 +6111,12 @@
         <v>88</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>87</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>87</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>65</v>
@@ -6171,12 +6171,12 @@
         <v>39</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>65</v>
@@ -6191,12 +6191,12 @@
         <v>39</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>65</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>65</v>
@@ -6236,87 +6236,87 @@
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>65</v>
@@ -6331,12 +6331,12 @@
         <v>39</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>65</v>
@@ -6351,12 +6351,12 @@
         <v>39</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>65</v>
@@ -6371,12 +6371,12 @@
         <v>31</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>65</v>
@@ -6391,12 +6391,12 @@
         <v>31</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>65</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>65</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>65</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>65</v>
@@ -6465,18 +6465,18 @@
         <v>64</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>65</v>
@@ -6485,18 +6485,18 @@
         <v>64</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>65</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>65</v>
@@ -6531,12 +6531,12 @@
         <v>20</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>65</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>65</v>
@@ -6571,12 +6571,12 @@
         <v>36</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>65</v>
@@ -6591,12 +6591,12 @@
         <v>36</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>65</v>
@@ -6611,12 +6611,12 @@
         <v>36</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>65</v>
@@ -6628,15 +6628,15 @@
         <v>68</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>65</v>
@@ -6648,7 +6648,7 @@
         <v>68</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>65</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>65</v>
@@ -6691,12 +6691,12 @@
         <v>67</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>65</v>
@@ -6711,12 +6711,12 @@
         <v>67</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>65</v>
@@ -6731,12 +6731,12 @@
         <v>67</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>65</v>
@@ -6751,12 +6751,12 @@
         <v>67</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>65</v>
@@ -6771,12 +6771,12 @@
         <v>67</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>65</v>
@@ -6791,12 +6791,12 @@
         <v>67</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>65</v>
@@ -6811,12 +6811,12 @@
         <v>67</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>65</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>65</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>65</v>
@@ -6871,12 +6871,12 @@
         <v>67</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>65</v>
@@ -6891,12 +6891,12 @@
         <v>67</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>65</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>65</v>
@@ -6925,18 +6925,18 @@
         <v>74</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>65</v>
@@ -6951,212 +6951,212 @@
         <v>50</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>65</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>58</v>
@@ -7185,53 +7185,53 @@
         <v>2</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7244,10 +7244,10 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Polygono-Coronopodion"/>
+        <filter val="Spergulo arvensis-Erodion cicutariae"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F222">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:F105">
       <sortCondition descending="1" ref="E1:E225"/>
     </sortState>
   </autoFilter>
@@ -7267,7 +7267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A09322D-87A1-4181-990C-35ABE2196247}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7280,19 +7280,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,13 +7303,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7320,13 +7320,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,13 +7337,13 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,13 +7354,13 @@
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,13 +7371,13 @@
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7388,13 +7388,13 @@
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7402,16 +7402,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7419,16 +7419,16 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7439,13 +7439,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7456,13 +7456,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,13 +7473,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7490,13 +7490,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7507,13 +7507,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7524,13 +7524,13 @@
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7541,13 +7541,13 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7558,13 +7558,13 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7572,16 +7572,16 @@
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7589,16 +7589,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7609,13 +7609,13 @@
         <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7626,13 +7626,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7643,13 +7643,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7660,13 +7660,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7679,8 +7679,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,33 +7696,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" t="s">
         <v>544</v>
       </c>
-      <c r="B1" t="s">
-        <v>545</v>
-      </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>65</v>
@@ -7737,15 +7737,15 @@
         <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>65</v>
@@ -7760,15 +7760,15 @@
         <v>75</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>65</v>
@@ -7783,15 +7783,15 @@
         <v>76</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>65</v>
@@ -7800,21 +7800,21 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -7829,15 +7829,15 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -7852,141 +7852,141 @@
         <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>65</v>
@@ -8004,73 +8004,73 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>58</v>
@@ -8082,16 +8082,16 @@
         <v>90</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>58</v>
@@ -8106,15 +8106,15 @@
         <v>89</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>58</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>58</v>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>58</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>58</v>
@@ -8186,19 +8186,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>58</v>
@@ -8207,334 +8207,334 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>65</v>
@@ -8543,21 +8543,21 @@
         <v>74</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>65</v>
@@ -8566,21 +8566,21 @@
         <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>65</v>
@@ -8589,21 +8589,21 @@
         <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -8618,15 +8618,15 @@
         <v>36</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>65</v>
@@ -8635,21 +8635,21 @@
         <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>65</v>
@@ -8664,15 +8664,15 @@
         <v>31</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
@@ -8681,21 +8681,21 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -8704,21 +8704,21 @@
         <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -8733,36 +8733,36 @@
         <v>55</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -8777,38 +8777,38 @@
         <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
@@ -8823,38 +8823,38 @@
         <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>549</v>
       </c>
       <c r="G53" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
@@ -8869,15 +8869,15 @@
         <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>65</v>
@@ -8892,15 +8892,15 @@
         <v>72</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
@@ -8912,18 +8912,18 @@
         <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -8935,18 +8935,18 @@
         <v>83</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -8961,15 +8961,15 @@
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
@@ -8981,18 +8981,18 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>58</v>
@@ -9007,15 +9007,15 @@
         <v>61</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>58</v>
@@ -9024,21 +9024,21 @@
         <v>57</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -9053,15 +9053,15 @@
         <v>13</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>65</v>
@@ -9070,21 +9070,21 @@
         <v>64</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>65</v>
@@ -9093,21 +9093,21 @@
         <v>64</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
@@ -9122,15 +9122,15 @@
         <v>79</v>
       </c>
       <c r="G65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C66" t="s">
         <v>58</v>
@@ -9139,21 +9139,21 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s">
         <v>58</v>
@@ -9165,18 +9165,18 @@
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G67" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
@@ -9191,99 +9191,99 @@
         <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C70" t="s">
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s">
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" t="s">
         <v>24</v>
       </c>
       <c r="G71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" t="s">
-        <v>345</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -9298,6 +9298,11 @@
       <filters>
         <filter val="Missing"/>
         <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Polygono-Poetea annuae"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9315,7 +9320,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9328,291 +9333,291 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s">
         <v>434</v>
       </c>
-      <c r="B1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
-        <v>437</v>
-      </c>
       <c r="F1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" t="s">
         <v>443</v>
-      </c>
-      <c r="E3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" t="s">
         <v>443</v>
-      </c>
-      <c r="E4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="C5" t="s">
-        <v>447</v>
-      </c>
       <c r="D5" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" t="s">
         <v>443</v>
-      </c>
-      <c r="E5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" t="s">
         <v>448</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" t="s">
         <v>454</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="E10" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>457</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" t="s">
         <v>460</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" t="s">
-        <v>461</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" t="s">
         <v>463</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="E14" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>50</v>
@@ -9621,72 +9626,72 @@
         <v>51</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" t="s">
         <v>469</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C18" t="s">
-        <v>470</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" t="s">
         <v>471</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C19" t="s">
-        <v>472</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" t="s">
         <v>475</v>
-      </c>
-      <c r="E20" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>84</v>
@@ -9695,15 +9700,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" t="s">
         <v>475</v>
-      </c>
-      <c r="E21" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>36</v>
@@ -9711,15 +9716,15 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>13</v>
@@ -9727,15 +9732,15 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -9743,31 +9748,31 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>40</v>
@@ -9775,10 +9780,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1438" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE4EE7A-B846-4592-AF6C-3DB867255AF5}"/>
+  <xr:revisionPtr revIDLastSave="1495" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9108EDF4-1B21-452F-A751-5B0AF891E85E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="590">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1795,6 +1795,27 @@
   </si>
   <si>
     <t>Quercion pyrenaicae</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Ruderal</t>
+  </si>
+  <si>
+    <t>Fringe</t>
+  </si>
+  <si>
+    <t>Trampled</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Flooded</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1959,7 +1980,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5275,10 +5295,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,9 +5310,10 @@
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>542</v>
       </c>
@@ -5314,8 +5335,11 @@
       <c r="G1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>343</v>
       </c>
@@ -5338,7 +5362,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>343</v>
       </c>
@@ -5361,7 +5385,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>343</v>
       </c>
@@ -5384,7 +5408,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>343</v>
       </c>
@@ -5407,7 +5431,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -5418,42 +5442,48 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>341</v>
       </c>
@@ -5474,7 +5504,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>341</v>
       </c>
@@ -5495,7 +5525,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>341</v>
       </c>
@@ -5516,7 +5546,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>341</v>
       </c>
@@ -5537,7 +5567,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
@@ -5558,7 +5588,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>341</v>
       </c>
@@ -5579,7 +5609,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>341</v>
       </c>
@@ -5600,7 +5630,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>341</v>
       </c>
@@ -5621,7 +5651,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>341</v>
       </c>
@@ -5980,7 +6010,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>341</v>
       </c>
@@ -6001,7 +6031,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>341</v>
       </c>
@@ -6022,7 +6052,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>341</v>
       </c>
@@ -6043,7 +6073,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>341</v>
       </c>
@@ -6064,7 +6094,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>341</v>
       </c>
@@ -6085,7 +6115,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>341</v>
       </c>
@@ -6106,7 +6136,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>341</v>
       </c>
@@ -6127,7 +6157,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>343</v>
       </c>
@@ -6150,7 +6180,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>343</v>
       </c>
@@ -6173,7 +6203,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>343</v>
       </c>
@@ -6196,30 +6226,33 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B43" t="s">
-        <v>343</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>343</v>
       </c>
@@ -6242,7 +6275,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>343</v>
       </c>
@@ -6265,30 +6298,33 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>343</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -6299,42 +6335,48 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>342</v>
-      </c>
-      <c r="B48" t="s">
+        <v>541</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>343</v>
       </c>
@@ -6355,7 +6397,7 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>343</v>
       </c>
@@ -6369,16 +6411,19 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>343</v>
       </c>
@@ -6401,7 +6446,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>343</v>
       </c>
@@ -6418,82 +6463,94 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
       <c r="B53" t="s">
-        <v>547</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="H53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="H54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s">
         <v>343</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="H55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>343</v>
       </c>
@@ -6507,17 +6564,20 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="H56" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>343</v>
       </c>
       <c r="B57" t="s">
@@ -6527,20 +6587,23 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" t="s">
+        <v>422</v>
+      </c>
+      <c r="H57" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>343</v>
       </c>
       <c r="B58" t="s">
@@ -6550,42 +6613,48 @@
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s">
+        <v>422</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>342</v>
       </c>
@@ -6608,7 +6677,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>342</v>
       </c>
@@ -6631,30 +6700,33 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" t="s">
-        <v>538</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>343</v>
       </c>
@@ -6677,7 +6749,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>343</v>
       </c>
@@ -6700,43 +6772,46 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
-        <v>276</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="E65" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="22" t="s">
         <v>95</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -6745,21 +6820,24 @@
       <c r="G66" s="22" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="H66" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="22" t="s">
         <v>95</v>
       </c>
       <c r="F67" s="22" t="s">
@@ -6768,120 +6846,138 @@
       <c r="G67" s="22" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="H67" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>342</v>
-      </c>
-      <c r="B68" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" t="s">
-        <v>330</v>
-      </c>
-      <c r="G68" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>343</v>
       </c>
       <c r="B69" t="s">
         <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="H69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
         <v>343</v>
       </c>
       <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F71" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>343</v>
-      </c>
-      <c r="B71" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>267</v>
-      </c>
-      <c r="G71" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" t="s">
-        <v>426</v>
+      <c r="H72" s="22" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -6899,8 +6995,11 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G72">
-    <sortCondition ref="F1:F72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H72">
+    <sortCondition ref="H2:H72"/>
+    <sortCondition ref="D2:D72"/>
+    <sortCondition ref="E2:E72"/>
+    <sortCondition ref="F2:F72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1495" documentId="8_{32B94757-4245-4A43-BECE-E3C816DFA9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9108EDF4-1B21-452F-A751-5B0AF891E85E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89938451-2E12-4B74-82BB-056F0E817AB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Groups" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alliances EUNIS'!$A$1:$J$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sintaxones SIVIM'!$A$1:$B$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alliances EUNIS'!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sintaxones SIVIM'!$A$1:$B$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="609">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -285,9 +285,6 @@
     <t>VEGETATION OF THE STEPPE ZONE</t>
   </si>
   <si>
-    <t>Geo urbani-Alliarion officinalis</t>
-  </si>
-  <si>
     <t>Galio-Alliarietalia</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Allio triquetri-Urticetum membranaceae</t>
   </si>
   <si>
-    <t>Allio vineale-Ranunculetum sardoi</t>
-  </si>
-  <si>
     <t>Amarantho hybridi-Chenopodietum polyspermi</t>
   </si>
   <si>
@@ -1773,9 +1767,6 @@
     <t>Triseto hispidi-Rumicetum suffruticosi</t>
   </si>
   <si>
-    <t>Calamagrostion pseudophragmitis</t>
-  </si>
-  <si>
     <t>Nanocyperion</t>
   </si>
   <si>
@@ -1816,6 +1807,72 @@
   </si>
   <si>
     <t>Flooded</t>
+  </si>
+  <si>
+    <t>Androsacetalia alpinae</t>
+  </si>
+  <si>
+    <t>Nanocyperetalia</t>
+  </si>
+  <si>
+    <t>Isoëto-Nanojuncetea</t>
+  </si>
+  <si>
+    <t>Quercetalia ilicis</t>
+  </si>
+  <si>
+    <t>Quercetea ilicis</t>
+  </si>
+  <si>
+    <t>Callitricho hamulatae-Ranunculetalia aquatilis</t>
+  </si>
+  <si>
+    <t>Potamogetonetea</t>
+  </si>
+  <si>
+    <t>Andryaletalia ragusinae</t>
+  </si>
+  <si>
+    <t>Epilobietalia fleischeri</t>
+  </si>
+  <si>
+    <t>Calamagrostion pseudophragmitae</t>
+  </si>
+  <si>
+    <t>FRESHWATER AQUATIC VEGETATION</t>
+  </si>
+  <si>
+    <t>Spergulo arvensis-Erodion cicutariae</t>
+  </si>
+  <si>
+    <t>Digitario sanguinalis-Eragrostietea minoris</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Inseparable, pocos inventarios</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>Had to remove Hedero-Polypodietum</t>
+  </si>
+  <si>
+    <t>Alianza Geo urbani-Alliarion officinalis</t>
+  </si>
+  <si>
+    <t>Smyrnienion olusatri</t>
+  </si>
+  <si>
+    <t>Alliarienion petiolatae</t>
+  </si>
+  <si>
+    <t>Inseparable de Alliarienion petiolatae y Balloto-Conion</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +2037,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2313,24 +2372,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -2338,65 +2397,65 @@
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" t="s">
         <v>521</v>
-      </c>
-      <c r="C5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" t="s">
         <v>531</v>
-      </c>
-      <c r="B7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" t="s">
         <v>534</v>
-      </c>
-      <c r="B8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C8" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2479,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,12 +2546,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -2503,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,12 +2570,12 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2524,15 +2583,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -2540,71 +2599,71 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2612,23 +2671,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -2636,15 +2695,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2652,7 +2711,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -2660,7 +2719,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2668,34 +2727,34 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -2723,13 +2782,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" t="s">
         <v>495</v>
-      </c>
-      <c r="C1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2807,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,21 +2818,21 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2840,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,43 +2851,43 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2838,11 +2897,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
-  <dimension ref="A1:B252"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,277 +2912,277 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -3130,63 +3190,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
@@ -3194,7 +3254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -3202,63 +3262,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>42</v>
       </c>
@@ -3266,127 +3326,127 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>42</v>
       </c>
@@ -3394,7 +3454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>42</v>
       </c>
@@ -3402,39 +3462,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>42</v>
       </c>
@@ -3442,55 +3502,55 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -3498,255 +3558,255 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3754,63 +3814,63 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
@@ -3818,47 +3878,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -3866,7 +3926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,15 +3934,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -3890,532 +3950,532 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>314</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
-        <v>102</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>93</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>69</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B171" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B175" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
-        <v>39</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>287</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
-        <v>20</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4483,7 @@
         <v>67</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,7 +4491,7 @@
         <v>67</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4439,7 +4499,7 @@
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +4507,7 @@
         <v>67</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +4515,7 @@
         <v>67</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>140</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +4523,7 @@
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4531,7 @@
         <v>67</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4539,7 @@
         <v>67</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4487,7 +4547,7 @@
         <v>67</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4555,7 @@
         <v>67</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4503,7 +4563,7 @@
         <v>67</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4511,370 +4571,367 @@
         <v>67</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>270</v>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>268</v>
+      </c>
+      <c r="B225" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="B226" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>530</v>
+        <v>36</v>
       </c>
       <c r="B227" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>36</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B229" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>72</v>
       </c>
       <c r="B230" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>72</v>
+        <v>596</v>
       </c>
       <c r="B231" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>575</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>580</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>59</v>
       </c>
       <c r="B238" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>573</v>
+      </c>
+      <c r="B239" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>524</v>
+      </c>
+      <c r="B240" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>524</v>
+      </c>
+      <c r="B241" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>328</v>
+      </c>
+      <c r="B242" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>578</v>
+      </c>
+      <c r="B243" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>59</v>
-      </c>
-      <c r="B239" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>576</v>
-      </c>
-      <c r="B240" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>526</v>
-      </c>
-      <c r="B241" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>526</v>
-      </c>
-      <c r="B242" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>330</v>
-      </c>
-      <c r="B243" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B244" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B245" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>577</v>
+        <v>298</v>
       </c>
       <c r="B246" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="B247" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B248" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>262</v>
+      </c>
+      <c r="B249" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>524</v>
+      </c>
+      <c r="B250" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>579</v>
-      </c>
-      <c r="B249" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>264</v>
-      </c>
-      <c r="B250" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>526</v>
+        <v>61</v>
       </c>
       <c r="B251" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>61</v>
-      </c>
-      <c r="B252" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B225" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
+  <autoFilter ref="A1:B251" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Arction lappae"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B105">
-      <sortCondition descending="1" ref="A1:A225"/>
+      <sortCondition descending="1" ref="A1:A224"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B225">
-    <sortCondition ref="A2:A225"/>
-    <sortCondition ref="B2:B225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B224">
+    <sortCondition ref="A2:A224"/>
+    <sortCondition ref="B2:B224"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4898,19 +4955,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4921,13 +4978,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4938,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4955,13 +5012,13 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4972,13 +5029,13 @@
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,13 +5046,13 @@
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5006,13 +5063,13 @@
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5020,16 +5077,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5037,16 +5094,16 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,13 +5114,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,13 +5131,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5148,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,13 +5165,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5125,13 +5182,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,13 +5199,13 @@
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,13 +5216,13 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,13 +5233,13 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5190,16 +5247,16 @@
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,33 +5264,33 @@
         <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,13 +5301,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,13 +5318,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,13 +5335,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5352,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I61" sqref="F61:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,40 +5368,48 @@
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="I1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>65</v>
@@ -5359,15 +5424,15 @@
         <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>65</v>
@@ -5382,15 +5447,15 @@
         <v>75</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>65</v>
@@ -5405,15 +5470,15 @@
         <v>76</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>65</v>
@@ -5422,199 +5487,208 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>540</v>
-      </c>
-      <c r="H6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="H7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>341</v>
-      </c>
       <c r="B13" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>65</v>
@@ -5623,82 +5697,82 @@
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>58</v>
@@ -5707,19 +5781,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>58</v>
@@ -5728,21 +5802,21 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>58</v>
@@ -5751,19 +5825,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>58</v>
@@ -5772,19 +5846,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>58</v>
@@ -5802,10 +5876,10 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>58</v>
@@ -5814,19 +5888,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>58</v>
@@ -5835,334 +5909,334 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>65</v>
@@ -6171,21 +6245,21 @@
         <v>74</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>65</v>
@@ -6194,21 +6268,21 @@
         <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>65</v>
@@ -6217,47 +6291,50 @@
         <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>65</v>
@@ -6266,21 +6343,21 @@
         <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>65</v>
@@ -6295,443 +6372,479 @@
         <v>31</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>530</v>
+        <v>426</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>539</v>
+        <v>423</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>599</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>598</v>
       </c>
       <c r="G47" t="s">
-        <v>541</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C48" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" t="s">
+        <v>584</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>546</v>
+      </c>
+      <c r="G48" t="s">
+        <v>418</v>
+      </c>
+      <c r="H48" t="s">
+        <v>584</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>539</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H50" t="s">
+        <v>584</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H52" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>427</v>
+      </c>
+      <c r="H53" t="s">
+        <v>583</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s">
         <v>65</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>416</v>
-      </c>
-      <c r="H53" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>418</v>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>419</v>
       </c>
       <c r="H54" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
         <v>419</v>
       </c>
       <c r="H55" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H56" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>538</v>
       </c>
       <c r="H57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="H58" t="s">
+        <v>586</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F62" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>539</v>
+      </c>
+      <c r="H61" t="s">
+        <v>582</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="G62" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>65</v>
@@ -6740,248 +6853,505 @@
         <v>64</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" t="s">
+        <v>539</v>
+      </c>
+      <c r="H64" t="s">
+        <v>582</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>537</v>
+      </c>
+      <c r="H65" t="s">
+        <v>582</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" t="s">
+        <v>581</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>341</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" t="s">
+        <v>420</v>
+      </c>
+      <c r="H67" t="s">
+        <v>581</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>607</v>
+      </c>
+      <c r="G68" t="s">
+        <v>420</v>
+      </c>
+      <c r="H68" t="s">
+        <v>581</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s">
+        <v>606</v>
+      </c>
+      <c r="G69" t="s">
+        <v>420</v>
+      </c>
+      <c r="H69" t="s">
+        <v>581</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>414</v>
+      </c>
+      <c r="H70" t="s">
+        <v>581</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>538</v>
+      </c>
+      <c r="H71" t="s">
+        <v>585</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" t="s">
+        <v>595</v>
+      </c>
+      <c r="F72" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>293</v>
+      </c>
+      <c r="E73" t="s">
+        <v>587</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" t="s">
+        <v>589</v>
+      </c>
+      <c r="E74" t="s">
+        <v>588</v>
+      </c>
+      <c r="F74" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="D75" t="s">
+        <v>591</v>
+      </c>
+      <c r="E75" t="s">
+        <v>590</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>339</v>
+      </c>
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="D77" t="s">
+        <v>593</v>
+      </c>
+      <c r="E77" t="s">
+        <v>592</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" t="s">
+        <v>594</v>
+      </c>
+      <c r="F78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>339</v>
+      </c>
+      <c r="B79" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>410</v>
+      </c>
+      <c r="H80" t="s">
+        <v>585</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C66" s="22" t="s">
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>332</v>
+      </c>
+      <c r="G81" t="s">
+        <v>416</v>
+      </c>
+      <c r="H81" t="s">
+        <v>581</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>342</v>
-      </c>
-      <c r="B69" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>540</v>
-      </c>
-      <c r="H69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>342</v>
-      </c>
-      <c r="B70" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>412</v>
-      </c>
-      <c r="H70" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>587</v>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" t="s">
+        <v>414</v>
+      </c>
+      <c r="H82" t="s">
+        <v>581</v>
+      </c>
+      <c r="I82" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J72" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+  <autoFilter ref="A1:J82" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="0">
       <filters>
         <filter val="?"/>
@@ -6995,13 +7365,15 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H72">
-    <sortCondition ref="H2:H72"/>
-    <sortCondition ref="D2:D72"/>
-    <sortCondition ref="E2:E72"/>
-    <sortCondition ref="F2:F72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J82">
+    <sortCondition ref="I2:I82"/>
+    <sortCondition ref="H2:H82"/>
+    <sortCondition ref="D2:D82"/>
+    <sortCondition ref="E2:E82"/>
+    <sortCondition ref="F2:F82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7023,291 +7395,291 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" t="s">
         <v>432</v>
       </c>
-      <c r="B1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" t="s">
-        <v>435</v>
-      </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" t="s">
-        <v>438</v>
-      </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" t="s">
         <v>440</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" t="s">
         <v>460</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>50</v>
@@ -7316,89 +7688,89 @@
         <v>51</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>472</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>36</v>
@@ -7406,15 +7778,15 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>13</v>
@@ -7422,15 +7794,15 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -7438,31 +7810,31 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>40</v>
@@ -7470,10 +7842,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89938451-2E12-4B74-82BB-056F0E817AB6}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4128AD49-B247-490B-91F3-D3D9455838B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Posibles según EuroVeg" sheetId="8" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Groups" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alliances EUNIS'!$A$1:$J$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sintaxones SIVIM'!$A$1:$B$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alliances EUNIS'!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sintaxones SIVIM'!$A$1:$B$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="626">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -897,9 +897,6 @@
     <t>Populetalia albae</t>
   </si>
   <si>
-    <t>Alno glutinosae-Populetea</t>
-  </si>
-  <si>
     <t>ALLUVIAL FORESTS AND SCRUB</t>
   </si>
   <si>
@@ -1068,9 +1065,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1281,9 +1275,6 @@
     <t>U38</t>
   </si>
   <si>
-    <t>R21, R22</t>
-  </si>
-  <si>
     <t>R32</t>
   </si>
   <si>
@@ -1848,31 +1839,91 @@
     <t>Digitario sanguinalis-Eragrostietea minoris</t>
   </si>
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Inseparable, pocos inventarios</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>2, 4</t>
-  </si>
-  <si>
-    <t>Had to remove Hedero-Polypodietum</t>
-  </si>
-  <si>
-    <t>Alianza Geo urbani-Alliarion officinalis</t>
-  </si>
-  <si>
     <t>Smyrnienion olusatri</t>
   </si>
   <si>
     <t>Alliarienion petiolatae</t>
   </si>
   <si>
-    <t>Inseparable de Alliarienion petiolatae y Balloto-Conion</t>
+    <t>Allio vineale-Ranunculetum sardoi</t>
+  </si>
+  <si>
+    <t>Filaginello uliginosae-Bidentetum tripartitae</t>
+  </si>
+  <si>
+    <t>R21, R22, V31</t>
+  </si>
+  <si>
+    <t>CANTEUNIS</t>
+  </si>
+  <si>
+    <t>V10X</t>
+  </si>
+  <si>
+    <t>V10Y</t>
+  </si>
+  <si>
+    <t>V10Z</t>
+  </si>
+  <si>
+    <t>V37Y</t>
+  </si>
+  <si>
+    <t>V32Z</t>
+  </si>
+  <si>
+    <t>V37Z</t>
+  </si>
+  <si>
+    <t>V38Z</t>
+  </si>
+  <si>
+    <t>V39Z</t>
+  </si>
+  <si>
+    <t>V34Y</t>
+  </si>
+  <si>
+    <t>V38Y</t>
+  </si>
+  <si>
+    <t>V39Y</t>
+  </si>
+  <si>
+    <t>V34Z</t>
+  </si>
+  <si>
+    <t>V35Z</t>
+  </si>
+  <si>
+    <t>V39W</t>
+  </si>
+  <si>
+    <t>V39X</t>
+  </si>
+  <si>
+    <t>V39V</t>
+  </si>
+  <si>
+    <t>R571</t>
+  </si>
+  <si>
+    <t>R554</t>
+  </si>
+  <si>
+    <t>Q61Z</t>
+  </si>
+  <si>
+    <t>R55Z</t>
+  </si>
+  <si>
+    <t>U38Z</t>
+  </si>
+  <si>
+    <t>R55Y</t>
+  </si>
+  <si>
+    <t>U3DZ</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2040,6 +2091,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,24 +2427,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -2397,65 +2452,65 @@
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -2479,10 +2534,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,12 +2601,12 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -2562,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,12 +2625,12 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2583,15 +2638,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -2599,31 +2654,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B19" t="s">
         <v>265</v>
@@ -2631,34 +2686,34 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2729,7 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2737,7 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,12 +2753,12 @@
         <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2711,7 +2766,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -2719,7 +2774,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2727,15 +2782,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
@@ -2743,18 +2798,18 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B35" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2782,13 +2837,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,10 +2862,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,10 +2873,10 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,10 +2884,10 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,10 +2895,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,10 +2906,10 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -2873,10 +2928,10 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,10 +2939,10 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" t="s">
         <v>491</v>
-      </c>
-      <c r="C10" t="s">
-        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2897,12 +2952,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,13 +2966,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2926,7 +2980,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2934,7 +2988,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>268</v>
       </c>
@@ -2942,7 +2996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -2950,135 +3004,135 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>546</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>595</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>546</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>595</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>546</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>595</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>546</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>595</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>546</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>595</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>546</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>595</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>546</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>595</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>546</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>595</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>546</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>595</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>546</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>595</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>261</v>
       </c>
@@ -3086,7 +3140,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>261</v>
       </c>
@@ -3094,7 +3148,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>261</v>
       </c>
@@ -3102,47 +3156,47 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>546</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>595</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>546</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>595</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>96</v>
       </c>
@@ -3150,7 +3204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>96</v>
       </c>
@@ -3158,15 +3212,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>96</v>
       </c>
@@ -3174,7 +3228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>96</v>
       </c>
@@ -3182,7 +3236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -3190,7 +3244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>278</v>
       </c>
@@ -3198,7 +3252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,7 +3260,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -3214,7 +3268,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3222,7 +3276,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -3230,15 +3284,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>265</v>
       </c>
@@ -3246,7 +3300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
@@ -3254,7 +3308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -3262,7 +3316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
@@ -3270,7 +3324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -3278,7 +3332,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>42</v>
       </c>
@@ -3286,7 +3340,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>42</v>
       </c>
@@ -3294,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>42</v>
       </c>
@@ -3302,7 +3356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>42</v>
       </c>
@@ -3318,7 +3372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>42</v>
       </c>
@@ -3326,7 +3380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>42</v>
       </c>
@@ -3334,7 +3388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
@@ -3342,7 +3396,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>42</v>
       </c>
@@ -3350,7 +3404,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>42</v>
       </c>
@@ -3358,7 +3412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>88</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>42</v>
       </c>
@@ -3374,7 +3428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>42</v>
       </c>
@@ -3382,7 +3436,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>42</v>
       </c>
@@ -3390,7 +3444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>42</v>
       </c>
@@ -3398,15 +3452,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>42</v>
       </c>
@@ -3414,7 +3468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>42</v>
       </c>
@@ -3422,7 +3476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>42</v>
       </c>
@@ -3430,7 +3484,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>42</v>
       </c>
@@ -3438,7 +3492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>42</v>
       </c>
@@ -3446,7 +3500,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>42</v>
       </c>
@@ -3454,7 +3508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>42</v>
       </c>
@@ -3462,23 +3516,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>42</v>
       </c>
@@ -3486,7 +3540,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>42</v>
       </c>
@@ -3494,7 +3548,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>42</v>
       </c>
@@ -3502,7 +3556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>42</v>
       </c>
@@ -3510,7 +3564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>24</v>
       </c>
@@ -3518,23 +3572,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3596,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3604,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -3558,119 +3612,119 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -3678,7 +3732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
@@ -3686,31 +3740,31 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>93</v>
       </c>
@@ -3718,7 +3772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
@@ -3726,7 +3780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>93</v>
       </c>
@@ -3734,7 +3788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>93</v>
       </c>
@@ -3742,7 +3796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
@@ -3750,23 +3804,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>59</v>
       </c>
@@ -3774,23 +3828,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -3798,7 +3852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>40</v>
       </c>
@@ -3806,7 +3860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3814,7 +3868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>281</v>
       </c>
@@ -3822,15 +3876,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
@@ -3838,7 +3892,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -3846,15 +3900,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
@@ -3862,7 +3916,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
@@ -3870,7 +3924,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
@@ -3878,15 +3932,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>272</v>
       </c>
@@ -3894,7 +3948,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>272</v>
       </c>
@@ -3902,7 +3956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>272</v>
       </c>
@@ -3910,7 +3964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>272</v>
       </c>
@@ -3918,7 +3972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -3926,7 +3980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -3934,7 +3988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>230</v>
       </c>
@@ -3942,7 +3996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -3950,7 +4004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
@@ -3958,7 +4012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -3966,47 +4020,47 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>110</v>
       </c>
@@ -4014,7 +4068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>110</v>
       </c>
@@ -4022,87 +4076,87 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>83</v>
       </c>
@@ -4110,7 +4164,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>83</v>
       </c>
@@ -4118,7 +4172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>83</v>
       </c>
@@ -4126,7 +4180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>83</v>
       </c>
@@ -4134,7 +4188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>83</v>
       </c>
@@ -4142,7 +4196,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>83</v>
       </c>
@@ -4150,7 +4204,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>83</v>
       </c>
@@ -4158,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>83</v>
       </c>
@@ -4166,15 +4220,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>101</v>
       </c>
@@ -4182,7 +4236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>92</v>
       </c>
@@ -4190,7 +4244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>69</v>
       </c>
@@ -4198,7 +4252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>69</v>
       </c>
@@ -4206,7 +4260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>69</v>
       </c>
@@ -4214,15 +4268,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>72</v>
       </c>
@@ -4230,7 +4284,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,7 +4292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>72</v>
       </c>
@@ -4246,15 +4300,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>87</v>
       </c>
@@ -4262,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>87</v>
       </c>
@@ -4270,7 +4324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>39</v>
       </c>
@@ -4278,7 +4332,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>39</v>
       </c>
@@ -4286,7 +4340,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>39</v>
       </c>
@@ -4294,7 +4348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>39</v>
       </c>
@@ -4302,7 +4356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>262</v>
       </c>
@@ -4310,7 +4364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>262</v>
       </c>
@@ -4318,7 +4372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>275</v>
       </c>
@@ -4326,7 +4380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>275</v>
       </c>
@@ -4334,7 +4388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>39</v>
       </c>
@@ -4342,7 +4396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>39</v>
       </c>
@@ -4350,7 +4404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>31</v>
       </c>
@@ -4358,7 +4412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>31</v>
       </c>
@@ -4366,7 +4420,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>31</v>
       </c>
@@ -4374,7 +4428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -4382,7 +4436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -4390,23 +4444,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>20</v>
       </c>
@@ -4414,7 +4468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>20</v>
       </c>
@@ -4422,7 +4476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>36</v>
       </c>
@@ -4430,7 +4484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>36</v>
       </c>
@@ -4438,7 +4492,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>36</v>
       </c>
@@ -4446,7 +4500,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>36</v>
       </c>
@@ -4454,7 +4508,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>110</v>
       </c>
@@ -4462,7 +4516,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>110</v>
       </c>
@@ -4515,7 +4569,7 @@
         <v>67</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4598,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>6</v>
@@ -4574,15 +4628,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>50</v>
       </c>
@@ -4590,7 +4644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>241</v>
       </c>
@@ -4598,7 +4652,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>241</v>
       </c>
@@ -4606,7 +4660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>241</v>
       </c>
@@ -4614,7 +4668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>241</v>
       </c>
@@ -4622,7 +4676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>241</v>
       </c>
@@ -4630,7 +4684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>241</v>
       </c>
@@ -4638,39 +4692,39 @@
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>50</v>
       </c>
@@ -4678,7 +4732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>273</v>
       </c>
@@ -4686,245 +4740,256 @@
         <v>112</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>268</v>
       </c>
       <c r="B225" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B226" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B227" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>36</v>
       </c>
       <c r="B228" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>72</v>
       </c>
       <c r="B229" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>72</v>
       </c>
       <c r="B230" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B231" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B233" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B234" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>59</v>
       </c>
       <c r="B238" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>570</v>
+      </c>
+      <c r="B239" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>521</v>
+      </c>
+      <c r="B240" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>521</v>
+      </c>
+      <c r="B241" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>327</v>
+      </c>
+      <c r="B242" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>575</v>
+      </c>
+      <c r="B243" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>576</v>
+      </c>
+      <c r="B244" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>571</v>
+      </c>
+      <c r="B245" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>297</v>
+      </c>
+      <c r="B246" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>572</v>
+      </c>
+      <c r="B247" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>573</v>
       </c>
-      <c r="B239" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>524</v>
-      </c>
-      <c r="B240" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>524</v>
-      </c>
-      <c r="B241" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>328</v>
-      </c>
-      <c r="B242" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>578</v>
-      </c>
-      <c r="B243" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>579</v>
-      </c>
-      <c r="B244" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>574</v>
-      </c>
-      <c r="B245" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>298</v>
-      </c>
-      <c r="B246" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>575</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>576</v>
-      </c>
-      <c r="B248" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>262</v>
       </c>
       <c r="B249" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B250" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>61</v>
       </c>
       <c r="B251" t="s">
-        <v>555</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>327</v>
+      </c>
+      <c r="B252" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B251" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Arction lappae"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:B253" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B105">
       <sortCondition descending="1" ref="A1:A224"/>
     </sortState>
@@ -4943,7 +5008,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,19 +5020,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4978,13 +5043,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4995,13 +5060,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,13 +5077,13 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5029,13 +5094,13 @@
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5046,13 +5111,13 @@
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,13 +5128,13 @@
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5080,13 +5145,13 @@
         <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5097,13 +5162,13 @@
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5114,13 +5179,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5131,13 +5196,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5148,13 +5213,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,13 +5230,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5182,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5199,13 +5264,13 @@
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5216,13 +5281,13 @@
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5233,13 +5298,13 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5250,13 +5315,13 @@
         <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5267,13 +5332,13 @@
         <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5284,13 +5349,13 @@
         <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5301,13 +5366,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5318,13 +5383,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5335,13 +5400,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5352,10 +5417,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I61" sqref="F61:I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,207 +5433,218 @@
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>282</v>
@@ -5578,33 +5654,33 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>86</v>
@@ -5620,159 +5696,159 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>339</v>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>295</v>
+        <v>481</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>58</v>
@@ -5784,16 +5860,18 @@
         <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>58</v>
@@ -5802,21 +5880,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>411</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>58</v>
@@ -5825,19 +5901,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>58</v>
@@ -5846,1531 +5922,1426 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>273</v>
+        <v>396</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>339</v>
+      <c r="A25" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>278</v>
+        <v>481</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>317</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>339</v>
+      <c r="A28" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>329</v>
+        <v>481</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B37" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B38" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="G38" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B39" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="B40" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="C40" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="B41" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>532</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="G43" s="23" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="H43" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="D44" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H44" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="I46" s="20">
-        <v>0</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" t="s">
-        <v>341</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D47" t="s">
-        <v>599</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" t="s">
-        <v>598</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="D47" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="H47" t="s">
-        <v>584</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B48" t="s">
-        <v>341</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="H47" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" t="s">
-        <v>546</v>
-      </c>
-      <c r="G48" t="s">
-        <v>418</v>
-      </c>
-      <c r="H48" t="s">
-        <v>584</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
+      <c r="D48" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="17"/>
+        <v>525</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H49" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>341</v>
-      </c>
-      <c r="B50" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="A50" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="H57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="H60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s">
-        <v>421</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="E61" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" t="s">
+        <v>592</v>
+      </c>
+      <c r="F69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" t="s">
         <v>584</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="F70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" t="s">
+        <v>338</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" t="s">
+        <v>586</v>
+      </c>
+      <c r="E71" t="s">
+        <v>585</v>
+      </c>
+      <c r="F71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>588</v>
+      </c>
+      <c r="E72" t="s">
+        <v>587</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D74" t="s">
+        <v>590</v>
+      </c>
+      <c r="E74" t="s">
+        <v>589</v>
+      </c>
+      <c r="F74" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" t="s">
+        <v>591</v>
+      </c>
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>338</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>341</v>
-      </c>
-      <c r="B52" t="s">
-        <v>341</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" t="s">
-        <v>424</v>
-      </c>
-      <c r="H52" t="s">
-        <v>581</v>
-      </c>
-      <c r="I52">
+      <c r="D78" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>340</v>
-      </c>
-      <c r="B53" t="s">
-        <v>341</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F53" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" t="s">
-        <v>427</v>
-      </c>
-      <c r="H53" t="s">
-        <v>583</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>341</v>
-      </c>
-      <c r="B54" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>419</v>
-      </c>
-      <c r="H54" t="s">
-        <v>583</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" t="s">
-        <v>419</v>
-      </c>
-      <c r="H55" t="s">
-        <v>583</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>341</v>
-      </c>
-      <c r="B56" t="s">
-        <v>341</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>423</v>
-      </c>
-      <c r="H56" t="s">
-        <v>583</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>341</v>
-      </c>
-      <c r="B57" t="s">
-        <v>341</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>538</v>
-      </c>
-      <c r="H57" t="s">
-        <v>586</v>
-      </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>341</v>
-      </c>
-      <c r="B58" t="s">
-        <v>341</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" t="s">
-        <v>536</v>
-      </c>
-      <c r="F58" t="s">
-        <v>524</v>
-      </c>
-      <c r="G58" t="s">
-        <v>538</v>
-      </c>
-      <c r="H58" t="s">
-        <v>586</v>
-      </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="F79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" t="s">
-        <v>341</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>539</v>
-      </c>
-      <c r="H61" t="s">
-        <v>582</v>
-      </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>341</v>
-      </c>
-      <c r="B64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>265</v>
-      </c>
-      <c r="G64" t="s">
-        <v>539</v>
-      </c>
-      <c r="H64" t="s">
-        <v>582</v>
-      </c>
-      <c r="I64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>341</v>
-      </c>
-      <c r="B65" t="s">
-        <v>341</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>537</v>
-      </c>
-      <c r="H65" t="s">
-        <v>582</v>
-      </c>
-      <c r="I65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>341</v>
-      </c>
-      <c r="B66" t="s">
-        <v>341</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" t="s">
-        <v>420</v>
-      </c>
-      <c r="H66" t="s">
-        <v>581</v>
-      </c>
-      <c r="I66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>341</v>
-      </c>
-      <c r="B67" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" t="s">
-        <v>420</v>
-      </c>
-      <c r="H67" t="s">
-        <v>581</v>
-      </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B68" t="s">
-        <v>341</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s">
-        <v>607</v>
-      </c>
-      <c r="G68" t="s">
-        <v>420</v>
-      </c>
-      <c r="H68" t="s">
-        <v>581</v>
-      </c>
-      <c r="I68">
-        <v>4</v>
-      </c>
-      <c r="J68" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>341</v>
-      </c>
-      <c r="B69" t="s">
-        <v>341</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s">
-        <v>606</v>
-      </c>
-      <c r="G69" t="s">
-        <v>420</v>
-      </c>
-      <c r="H69" t="s">
-        <v>581</v>
-      </c>
-      <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>341</v>
-      </c>
-      <c r="B70" t="s">
-        <v>341</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s">
-        <v>414</v>
-      </c>
-      <c r="H70" t="s">
-        <v>581</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>340</v>
-      </c>
-      <c r="B71" t="s">
-        <v>341</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s">
-        <v>538</v>
-      </c>
-      <c r="H71" t="s">
-        <v>585</v>
-      </c>
-      <c r="I71">
-        <v>6</v>
-      </c>
-      <c r="J71" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>339</v>
-      </c>
-      <c r="B72" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>293</v>
-      </c>
-      <c r="E72" t="s">
-        <v>595</v>
-      </c>
-      <c r="F72" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>339</v>
-      </c>
-      <c r="B73" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" t="s">
-        <v>293</v>
-      </c>
-      <c r="E73" t="s">
-        <v>587</v>
-      </c>
-      <c r="F73" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>339</v>
-      </c>
-      <c r="B74" t="s">
-        <v>339</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="D74" t="s">
-        <v>589</v>
-      </c>
-      <c r="E74" t="s">
-        <v>588</v>
-      </c>
-      <c r="F74" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>339</v>
-      </c>
-      <c r="B75" t="s">
-        <v>339</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" t="s">
-        <v>591</v>
-      </c>
-      <c r="E75" t="s">
-        <v>590</v>
-      </c>
-      <c r="F75" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" t="s">
-        <v>339</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" t="s">
-        <v>327</v>
-      </c>
-      <c r="E76" t="s">
-        <v>326</v>
-      </c>
-      <c r="F76" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>339</v>
-      </c>
-      <c r="B77" t="s">
-        <v>339</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="D77" t="s">
-        <v>593</v>
-      </c>
-      <c r="E77" t="s">
-        <v>592</v>
-      </c>
-      <c r="F77" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78" t="s">
-        <v>339</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>293</v>
-      </c>
-      <c r="E78" t="s">
-        <v>594</v>
-      </c>
-      <c r="F78" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>339</v>
-      </c>
-      <c r="B79" t="s">
-        <v>339</v>
-      </c>
-      <c r="C79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" t="s">
-        <v>264</v>
-      </c>
-      <c r="E79" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>340</v>
-      </c>
-      <c r="B80" t="s">
-        <v>341</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" t="s">
-        <v>410</v>
-      </c>
-      <c r="H80" t="s">
-        <v>585</v>
-      </c>
-      <c r="I80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>341</v>
-      </c>
-      <c r="B81" t="s">
-        <v>341</v>
-      </c>
-      <c r="C81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" t="s">
-        <v>332</v>
-      </c>
-      <c r="G81" t="s">
-        <v>416</v>
-      </c>
-      <c r="H81" t="s">
-        <v>581</v>
-      </c>
-      <c r="I81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>341</v>
-      </c>
-      <c r="B82" t="s">
-        <v>341</v>
-      </c>
-      <c r="C82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>69</v>
-      </c>
-      <c r="G82" t="s">
-        <v>414</v>
-      </c>
-      <c r="H82" t="s">
-        <v>581</v>
-      </c>
-      <c r="I82" t="s">
-        <v>603</v>
+      <c r="G79" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J82" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+  <autoFilter ref="A1:H79" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="0">
       <filters>
-        <filter val="?"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="Missing"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J82">
-    <sortCondition ref="I2:I82"/>
-    <sortCondition ref="H2:H82"/>
-    <sortCondition ref="D2:D82"/>
-    <sortCondition ref="E2:E82"/>
-    <sortCondition ref="F2:F82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J77">
+    <sortCondition ref="G2:G79"/>
+    <sortCondition ref="D2:D79"/>
+    <sortCondition ref="E2:E79"/>
+    <sortCondition ref="F2:F79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7395,274 +7366,274 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" t="s">
-        <v>433</v>
-      </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>110</v>
@@ -7671,15 +7642,15 @@
         <v>7</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>50</v>
@@ -7688,72 +7659,72 @@
         <v>51</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>83</v>
@@ -7762,15 +7733,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>36</v>
@@ -7778,15 +7749,15 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>13</v>
@@ -7794,15 +7765,15 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -7810,31 +7781,31 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>40</v>
@@ -7842,7 +7813,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>93</v>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D528E14F-7874-4C27-BE71-40B790EE12C4}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C619A1B5-2639-40C4-B259-7BFCAF463C99}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
     <sheet name="Alliances EUNIS" sheetId="4" r:id="rId2"/>
+    <sheet name="Clean Associations" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alliances EUNIS'!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alliances EUNIS'!$A$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$B$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="571">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1505,6 +1506,255 @@
   </si>
   <si>
     <t>Geo urbani-Alliarion officinalis</t>
+  </si>
+  <si>
+    <t>Silenion maritimae</t>
+  </si>
+  <si>
+    <t>Crithmo-Armerietalia maritimae</t>
+  </si>
+  <si>
+    <t>Crithmo-Staticetea</t>
+  </si>
+  <si>
+    <t>Parietarion lusitanico-mauritanicae</t>
+  </si>
+  <si>
+    <t>Caucalidion lappulae</t>
+  </si>
+  <si>
+    <t>V332</t>
+  </si>
+  <si>
+    <t>V38X</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez &amp; Costa 1997</t>
+  </si>
+  <si>
+    <t>Loidi, Berastegi, Biurrun, García-Mijangos &amp; Herrera 1995</t>
+  </si>
+  <si>
+    <t>Alves, Honrado &amp; Barreto de Oliveira 2003</t>
+  </si>
+  <si>
+    <t>Chelidonio majoris-Smyrnietum olusatri</t>
+  </si>
+  <si>
+    <t>Amigo &amp; Romero 1997</t>
+  </si>
+  <si>
+    <t>Urtico membranaceae-Smyrnietum olusatri</t>
+  </si>
+  <si>
+    <t>A. &amp; O. Bolòs in O. Bolòs &amp; Molinier 1958</t>
+  </si>
+  <si>
+    <t>Chenopodio boni-henrici-Senecionetum duriaei</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez 1964</t>
+  </si>
+  <si>
+    <t>Bellot &amp; Casaseca in Casaseca 1959</t>
+  </si>
+  <si>
+    <t>Honrado, Alves, Lomba, Rocha, Torres, Ortiz &amp; Barreto Caldas 2004</t>
+  </si>
+  <si>
+    <t>Malvo mauritianae-Rumicetum obtusifolii</t>
+  </si>
+  <si>
+    <t>Oberdorfer &amp; Tüxen in Tüxen &amp; Oberdorfer 1958</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez ex G. López 1978</t>
+  </si>
+  <si>
+    <t>(Br.-Bl. in Br.-Bl., Gajewski, Wraber &amp; Walas 1936) Br.-Bl. in Br.-Bl., Roussine &amp; Nègre 1952</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez, Belmonte, Fernández-González &amp; Sánchez-Mata in Sánchez-Mata 1989</t>
+  </si>
+  <si>
+    <t>Amigo 2006</t>
+  </si>
+  <si>
+    <t>Lohmeyer ex Passarge 1955</t>
+  </si>
+  <si>
+    <t>O. Bolòs 1957</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez &amp; F. Prieto in Penas, T.E. Díaz, M.E. García, López Pacheco, Puente &amp; L. Herrero 1988</t>
+  </si>
+  <si>
+    <t>Loidi 1983</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez, T.E. Díaz, F. Prieto, Loidi &amp; Penas 1984</t>
+  </si>
+  <si>
+    <t>Görs 1966</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez 1969</t>
+  </si>
+  <si>
+    <t>Picrido hieracioidis-Eupatorietum cannabini</t>
+  </si>
+  <si>
+    <t>Loidi &amp; C. Navarro 1988</t>
+  </si>
+  <si>
+    <t>Helminthio echioidis-Melilotetum albae</t>
+  </si>
+  <si>
+    <t>Izco, J. Guitián &amp; Amigo 1986 corr. Izco &amp; Amigo 2001</t>
+  </si>
+  <si>
+    <t>Loriente Escallada 1985</t>
+  </si>
+  <si>
+    <t>K. Buchwald 1952</t>
+  </si>
+  <si>
+    <t>Izco, J. Guitián &amp; Amigo 1986</t>
+  </si>
+  <si>
+    <t>Loidi, Berastegi, Biurrun, García Mijangos &amp; Herrera 1996</t>
+  </si>
+  <si>
+    <t>O. Bolòs &amp; Vigo in O. Bolòs 1967</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez 1978</t>
+  </si>
+  <si>
+    <t>Scrophulario frutescentis-Vulpietum alopecuroris</t>
+  </si>
+  <si>
+    <t>Br.-Bl., Rozeira &amp; P. Silva in Br.-Bl., G. Br.-Bl., Rozeira &amp; P. Silva 1972</t>
+  </si>
+  <si>
+    <t>Aedo, Herrera, F. Prieto &amp; T.E. Díaz 1988</t>
+  </si>
+  <si>
+    <t>Penas, T.E. Díaz, C. Pérez, Puente, M.E. García &amp; Terrón 1988</t>
+  </si>
+  <si>
+    <t>Agrostio-Paspaletum vaginati</t>
+  </si>
+  <si>
+    <t>Bueno &amp; F. Prieto in Bueno 1997</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez 1975</t>
+  </si>
+  <si>
+    <t>Wildpret, Pérez de Paz, Del Arco &amp; García Gallo 1988</t>
+  </si>
+  <si>
+    <t>Herrera, Aedo, T.E.Díaz &amp; F. Prieto 1988</t>
+  </si>
+  <si>
+    <t>Coronopodo procumbentis-Sclerochloetum durae</t>
+  </si>
+  <si>
+    <t>Br.-Bl. in Br.-Bl., Gajewski, Wraber &amp; Walas 1936</t>
+  </si>
+  <si>
+    <t>Matricario-Polygonetum arenastri</t>
+  </si>
+  <si>
+    <t>Müller ex Oberdorfer 1971 corr. Passarge 1996</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez, Wildpret, Del Arco, O. Rodríguez, Pérez de Paz, García Gallo, Acebes, T.E. Díaz &amp; Fernández-González 1993</t>
+  </si>
+  <si>
+    <t>Diemont, Sissingh &amp; Westhoff 1940</t>
+  </si>
+  <si>
+    <t>Bunio erucagini-Vicietum tetraspermae</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez, Izco &amp; Costa 1971</t>
+  </si>
+  <si>
+    <t>Br.-Bl., P. Silva, Rozeira &amp; Fontes 1952</t>
+  </si>
+  <si>
+    <t>Centaureo cyani-Raphanetum microcarpi</t>
+  </si>
+  <si>
+    <t>Penas, T.E. Díaz, P. Morales, Puente, M.E. García &amp; Terrón 1988</t>
+  </si>
+  <si>
+    <t>Chrysanthemo segetum-Raphanetum microcarpi</t>
+  </si>
+  <si>
+    <t>Bellot 1951</t>
+  </si>
+  <si>
+    <t>Izco 1982</t>
+  </si>
+  <si>
+    <t>Linario delphinioidis-Arnoseridetum</t>
+  </si>
+  <si>
+    <t>Tüxen &amp; Oberdorfer 1958</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez &amp; C. Rivas-Martínez 1970</t>
+  </si>
+  <si>
+    <t>Spergulario purpureae-Arnoseridetum minimae</t>
+  </si>
+  <si>
+    <t>Arundini donacis-Convolvuletum sepium</t>
+  </si>
+  <si>
+    <t>Tüxen &amp; Oberdorfer ex O. Bolòs 1962</t>
+  </si>
+  <si>
+    <t>Solano dulcamarae-Epilobietum hirsuti</t>
+  </si>
+  <si>
+    <t>Biurrun, García-Mijangos, Benito Crespo &amp; Fernández-González 2008</t>
+  </si>
+  <si>
+    <t>Ortiz inéd.</t>
+  </si>
+  <si>
+    <t>Hordeetum murini</t>
+  </si>
+  <si>
+    <t>Libbert 1933</t>
+  </si>
+  <si>
+    <t>Br.-Bl. 1967</t>
+  </si>
+  <si>
+    <t>Tüxen &amp; Oberdofer 1958</t>
+  </si>
+  <si>
+    <t>Setario verticillatae-Echinochloetum cruris-galli</t>
+  </si>
+  <si>
+    <t>Bartolomé &amp; Martínez-Parras 1985</t>
+  </si>
+  <si>
+    <t>Rivas-Martínez, Penas &amp; T.E. Díaz 1986</t>
+  </si>
+  <si>
+    <t>Izco &amp; Collado 1985</t>
   </si>
 </sst>
 </file>
@@ -1972,8 +2222,8 @@
   <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2625,7 @@
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>492</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>128</v>
@@ -2391,7 +2641,7 @@
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>42</v>
+        <v>492</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>28</v>
@@ -2423,7 +2673,7 @@
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>141</v>
@@ -2607,7 +2857,7 @@
     </row>
     <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>233</v>
@@ -2623,7 +2873,7 @@
     </row>
     <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>41</v>
@@ -2871,7 +3121,7 @@
     </row>
     <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>189</v>
@@ -2902,8 +3152,8 @@
       </c>
     </row>
     <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>40</v>
+      <c r="A116" t="s">
+        <v>92</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>222</v>
@@ -2999,7 +3249,7 @@
     </row>
     <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>34</v>
@@ -3037,7 +3287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>487</v>
       </c>
@@ -3109,7 +3359,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>487</v>
       </c>
@@ -3141,7 +3391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>487</v>
       </c>
@@ -3149,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>487</v>
       </c>
@@ -3157,7 +3407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>487</v>
       </c>
@@ -3175,7 +3425,7 @@
     </row>
     <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>116</v>
@@ -3183,7 +3433,7 @@
     </row>
     <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>117</v>
@@ -3245,7 +3495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>100</v>
       </c>
@@ -3311,7 +3561,7 @@
     </row>
     <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>217</v>
@@ -4009,8 +4259,7 @@
   <autoFilter ref="A1:B253" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Alliarienion petiolatae"/>
-        <filter val="Geo urbani-Alliarion officinalis"/>
+        <filter val="Echio-Galactition tomentosae"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B105">
@@ -4029,10 +4278,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,27 +5105,33 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>377</v>
+      <c r="D37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4896,7 +5151,7 @@
         <v>284</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>283</v>
+        <v>492</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>385</v>
@@ -4933,25 +5188,25 @@
         <v>338</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4985,25 +5240,25 @@
         <v>338</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5017,13 +5272,13 @@
         <v>65</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>459</v>
+        <v>64</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>381</v>
@@ -5032,7 +5287,7 @@
         <v>444</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,16 +5307,16 @@
         <v>66</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>444</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5085,27 +5340,33 @@
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>378</v>
+      <c r="D46" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,22 +5380,22 @@
         <v>65</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5197,22 +5458,22 @@
         <v>65</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>441</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,22 +5487,22 @@
         <v>65</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5284,7 +5545,7 @@
         <v>93</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>382</v>
@@ -5293,7 +5554,7 @@
         <v>443</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5336,16 +5597,16 @@
         <v>93</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>443</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5359,22 +5620,22 @@
         <v>65</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5420,7 +5681,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>486</v>
+        <v>55</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>380</v>
@@ -5429,7 +5690,7 @@
         <v>441</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5443,22 +5704,22 @@
         <v>65</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>441</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -5706,7 +5967,7 @@
         <v>337</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C69" t="s">
         <v>86</v>
@@ -5726,7 +5987,7 @@
         <v>337</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
         <v>86</v>
@@ -5746,7 +6007,7 @@
         <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>315</v>
@@ -5766,7 +6027,7 @@
         <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>336</v>
@@ -5786,7 +6047,7 @@
         <v>337</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>58</v>
@@ -5806,7 +6067,7 @@
         <v>337</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>457</v>
@@ -5826,7 +6087,7 @@
         <v>337</v>
       </c>
       <c r="B75" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
@@ -5846,7 +6107,7 @@
         <v>337</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C76" t="s">
         <v>58</v>
@@ -5936,13 +6197,51 @@
         <v>375</v>
       </c>
     </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s">
+        <v>491</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H79" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:H81" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="1">
       <filters>
         <filter val="Yes"/>
@@ -5950,12 +6249,758 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I77">
-    <sortCondition ref="G2:G79"/>
-    <sortCondition ref="D2:D79"/>
-    <sortCondition ref="E2:E79"/>
-    <sortCondition ref="F2:F79"/>
+    <sortCondition ref="G2:G81"/>
+    <sortCondition ref="D2:D81"/>
+    <sortCondition ref="E2:E81"/>
+    <sortCondition ref="F2:F81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D13668-5AFE-4B9C-AD33-502416580960}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" t="s">
+        <v>531</v>
+      </c>
+      <c r="C35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>397</v>
+      </c>
+      <c r="B39" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C44" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>542</v>
+      </c>
+      <c r="C45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>546</v>
+      </c>
+      <c r="C48" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>551</v>
+      </c>
+      <c r="C51" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>554</v>
+      </c>
+      <c r="C53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>557</v>
+      </c>
+      <c r="C56" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>558</v>
+      </c>
+      <c r="C57" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>560</v>
+      </c>
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>458</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C619A1B5-2639-40C4-B259-7BFCAF463C99}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D086D9D2-53AF-461C-8FD2-3E9132D5119C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Clean Associations" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alliances EUNIS'!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$B$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alliances EUNIS'!$A$1:$H$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sintaxones SIVIM'!$A$1:$B$254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="574">
   <si>
     <t>Parietarietum judaicae</t>
   </si>
@@ -1649,12 +1649,6 @@
     <t>Penas, T.E. Díaz, C. Pérez, Puente, M.E. García &amp; Terrón 1988</t>
   </si>
   <si>
-    <t>Agrostio-Paspaletum vaginati</t>
-  </si>
-  <si>
-    <t>Bueno &amp; F. Prieto in Bueno 1997</t>
-  </si>
-  <si>
     <t>Rivas-Martínez 1975</t>
   </si>
   <si>
@@ -1755,6 +1749,21 @@
   </si>
   <si>
     <t>Izco &amp; Collado 1985</t>
+  </si>
+  <si>
+    <t>Agrostio stoloniferae-Paspaletum vaginati</t>
+  </si>
+  <si>
+    <t>Juncion maritimi</t>
+  </si>
+  <si>
+    <t>Juncetalia maritimi</t>
+  </si>
+  <si>
+    <t>Vegetation of saline and brackish waters and swamps</t>
+  </si>
+  <si>
+    <t>Paspalo distichi-Agrostietum verticillatae</t>
   </si>
 </sst>
 </file>
@@ -2219,19 +2228,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="70.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>267</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>458</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>359</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>458</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>458</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>399</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>399</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>399</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>458</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>399</v>
       </c>
@@ -2351,7 +2360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>458</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>458</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>399</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>458</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>458</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>260</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>260</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>260</v>
       </c>
@@ -2423,7 +2432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>399</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>399</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>300</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>458</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>458</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>95</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>307</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>95</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>277</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>264</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>264</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>42</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>42</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>492</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>42</v>
       </c>
@@ -2639,7 +2648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
         <v>492</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>42</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>399</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>88</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="s">
         <v>42</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>42</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>88</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>42</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>42</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="s">
         <v>42</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>42</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="s">
         <v>42</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>42</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="s">
         <v>42</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>42</v>
       </c>
@@ -2815,7 +2824,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
         <v>42</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>42</v>
       </c>
@@ -2831,7 +2840,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>24</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="s">
         <v>24</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>277</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="s">
         <v>24</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -2879,7 +2888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>285</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>333</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>326</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>326</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
         <v>88</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
         <v>88</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>326</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="10" t="s">
         <v>326</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>326</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="10" t="s">
         <v>326</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>293</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>293</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>92</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>92</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>289</v>
       </c>
@@ -3079,7 +3088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>59</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>331</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>287</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>310</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>280</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>362</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="6" t="s">
         <v>389</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
@@ -3191,7 +3200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>330</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>271</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>271</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>271</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>491</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>229</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>487</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>323</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>323</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="18" t="s">
         <v>486</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>296</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="10" t="s">
         <v>109</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>109</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="18" t="s">
         <v>486</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="18" t="s">
         <v>486</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="s">
         <v>487</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>364</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>364</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>316</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="s">
         <v>487</v>
       </c>
@@ -3399,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>487</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="s">
         <v>487</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="18" t="s">
         <v>486</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>488</v>
       </c>
@@ -3431,7 +3440,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>488</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>83</v>
       </c>
@@ -3447,7 +3456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>83</v>
       </c>
@@ -3455,7 +3464,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>83</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>83</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>83</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>83</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>310</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>100</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>69</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="10" t="s">
         <v>69</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>69</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="10" t="s">
         <v>69</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>72</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>72</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>267</v>
       </c>
@@ -3567,7 +3576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>87</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>87</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>39</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="10" t="s">
         <v>39</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>39</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="10" t="s">
         <v>39</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>261</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="4" t="s">
         <v>261</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>274</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>274</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>39</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="10" t="s">
         <v>39</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>31</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>31</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>283</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>283</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="10" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>20</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>36</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>36</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3776,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>36</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>109</v>
       </c>
@@ -3783,7 +3792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>109</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>67</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>67</v>
       </c>
@@ -3815,7 +3824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>67</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>67</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>67</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>67</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>67</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>67</v>
       </c>
@@ -3863,7 +3872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>109</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>67</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>67</v>
       </c>
@@ -3887,7 +3896,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>67</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>292</v>
       </c>
@@ -3903,7 +3912,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>50</v>
       </c>
@@ -3911,7 +3920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>240</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="4" t="s">
         <v>240</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>240</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
         <v>240</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>240</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="4" t="s">
         <v>240</v>
       </c>
@@ -3959,7 +3968,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
         <v>317</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
         <v>317</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="5" t="s">
         <v>327</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="5" t="s">
         <v>327</v>
       </c>
@@ -3991,7 +4000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>50</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
         <v>272</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>358</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="4" t="s">
         <v>370</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>398</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>72</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>72</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>437</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>320</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>59</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>59</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>59</v>
       </c>
@@ -4127,7 +4136,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>433</v>
       </c>
@@ -4143,7 +4152,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>397</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>397</v>
       </c>
@@ -4159,7 +4168,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>326</v>
       </c>
@@ -4167,7 +4176,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>438</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>439</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>434</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>296</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>435</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>436</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -4223,15 +4232,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>397</v>
+        <v>570</v>
       </c>
       <c r="B250" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>61</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>326</v>
       </c>
@@ -4247,7 +4256,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -4255,11 +4264,19 @@
         <v>461</v>
       </c>
     </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>570</v>
+      </c>
+      <c r="B254" t="s">
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B253" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
+  <autoFilter ref="A1:B254" xr:uid="{62C9A689-5EFF-4F63-A095-ECE91F822ADF}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Echio-Galactition tomentosae"/>
+        <filter val="Paspalo-Agrostion semiverticillati"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B105">
@@ -4278,26 +4295,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="70.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="41.59765625" customWidth="1"/>
+    <col min="4" max="4" width="31.73046875" customWidth="1"/>
+    <col min="5" max="5" width="43.73046875" customWidth="1"/>
+    <col min="6" max="6" width="38.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>338</v>
       </c>
@@ -4355,7 +4372,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>338</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>338</v>
       </c>
@@ -4407,7 +4424,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>338</v>
       </c>
@@ -4436,7 +4453,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>338</v>
       </c>
@@ -4465,7 +4482,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>338</v>
       </c>
@@ -4494,7 +4511,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>337</v>
       </c>
@@ -4515,7 +4532,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>337</v>
       </c>
@@ -4536,7 +4553,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>337</v>
       </c>
@@ -4557,7 +4574,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>337</v>
       </c>
@@ -4578,7 +4595,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>337</v>
       </c>
@@ -4599,7 +4616,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>337</v>
       </c>
@@ -4620,7 +4637,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>337</v>
       </c>
@@ -4641,7 +4658,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>337</v>
       </c>
@@ -4662,15 +4679,15 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>270</v>
+      <c r="C16" t="s">
+        <v>572</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>269</v>
@@ -4683,7 +4700,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>337</v>
       </c>
@@ -4704,7 +4721,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>337</v>
       </c>
@@ -4727,7 +4744,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>337</v>
       </c>
@@ -4748,7 +4765,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>337</v>
       </c>
@@ -4769,7 +4786,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>337</v>
       </c>
@@ -4790,7 +4807,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>337</v>
       </c>
@@ -4811,7 +4828,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>337</v>
       </c>
@@ -4832,7 +4849,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>337</v>
       </c>
@@ -4853,7 +4870,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>337</v>
       </c>
@@ -4874,7 +4891,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>337</v>
       </c>
@@ -4895,7 +4912,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>337</v>
       </c>
@@ -4916,7 +4933,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>337</v>
       </c>
@@ -4937,7 +4954,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>337</v>
       </c>
@@ -4958,7 +4975,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>337</v>
       </c>
@@ -4979,7 +4996,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>337</v>
       </c>
@@ -5000,7 +5017,7 @@
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>337</v>
       </c>
@@ -5021,7 +5038,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>337</v>
       </c>
@@ -5042,7 +5059,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>337</v>
       </c>
@@ -5063,7 +5080,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>337</v>
       </c>
@@ -5084,7 +5101,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>337</v>
       </c>
@@ -5105,7 +5122,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18" t="s">
         <v>338</v>
       </c>
@@ -5134,7 +5151,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>338</v>
       </c>
@@ -5157,7 +5174,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>338</v>
       </c>
@@ -5180,7 +5197,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
         <v>338</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>338</v>
       </c>
@@ -5232,7 +5249,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
         <v>338</v>
       </c>
@@ -5261,7 +5278,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="18" t="s">
         <v>338</v>
       </c>
@@ -5290,7 +5307,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
         <v>338</v>
       </c>
@@ -5319,7 +5336,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>338</v>
       </c>
@@ -5340,7 +5357,7 @@
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
         <v>338</v>
       </c>
@@ -5369,7 +5386,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
         <v>338</v>
       </c>
@@ -5398,7 +5415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>338</v>
       </c>
@@ -5421,7 +5438,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>338</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
         <v>338</v>
       </c>
@@ -5476,7 +5493,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18" t="s">
         <v>338</v>
       </c>
@@ -5505,7 +5522,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -5528,7 +5545,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="18" t="s">
         <v>338</v>
       </c>
@@ -5557,7 +5574,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>338</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="18" t="s">
         <v>338</v>
       </c>
@@ -5609,7 +5626,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="18" t="s">
         <v>338</v>
       </c>
@@ -5638,7 +5655,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>337</v>
       </c>
@@ -5664,7 +5681,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="18" t="s">
         <v>338</v>
       </c>
@@ -5693,7 +5710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="18" t="s">
         <v>338</v>
       </c>
@@ -5722,7 +5739,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>337</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>338</v>
       </c>
@@ -5771,7 +5788,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="16" t="s">
         <v>337</v>
       </c>
@@ -5794,7 +5811,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="18" t="s">
         <v>338</v>
       </c>
@@ -5823,7 +5840,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="18" t="s">
         <v>338</v>
       </c>
@@ -5852,7 +5869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="18" t="s">
         <v>338</v>
       </c>
@@ -5881,7 +5898,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>338</v>
       </c>
@@ -5904,7 +5921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="18" t="s">
         <v>338</v>
       </c>
@@ -5933,7 +5950,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="18" t="s">
         <v>338</v>
       </c>
@@ -5962,7 +5979,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>337</v>
       </c>
@@ -5982,7 +5999,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>337</v>
       </c>
@@ -6022,7 +6039,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>337</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>337</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -6082,7 +6099,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>337</v>
       </c>
@@ -6102,7 +6119,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>337</v>
       </c>
@@ -6122,7 +6139,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="18" t="s">
         <v>338</v>
       </c>
@@ -6151,7 +6168,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>338</v>
       </c>
@@ -6174,7 +6191,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>337</v>
       </c>
@@ -6197,7 +6214,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="18" t="s">
         <v>337</v>
       </c>
@@ -6217,7 +6234,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="18" t="s">
         <v>338</v>
       </c>
@@ -6240,11 +6257,31 @@
         <v>380</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>572</v>
+      </c>
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" t="s">
+        <v>571</v>
+      </c>
+      <c r="F82" t="s">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H81" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:H82" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Yes"/>
+        <filter val="Juncetea maritimi"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6261,20 +6298,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D13668-5AFE-4B9C-AD33-502416580960}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.1328125" customWidth="1"/>
+    <col min="2" max="2" width="59.265625" customWidth="1"/>
+    <col min="3" max="3" width="92.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -6285,7 +6322,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6296,7 +6333,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6307,7 +6344,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -6318,7 +6355,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>486</v>
       </c>
@@ -6329,7 +6366,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -6340,7 +6377,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -6351,7 +6388,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6362,7 +6399,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6373,7 +6410,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -6384,7 +6421,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -6395,7 +6432,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -6406,7 +6443,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -6417,7 +6454,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6428,7 +6465,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -6439,7 +6476,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6450,7 +6487,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -6461,7 +6498,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6472,7 +6509,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -6483,7 +6520,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6494,7 +6531,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -6505,7 +6542,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -6516,7 +6553,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -6527,7 +6564,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -6538,7 +6575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -6549,7 +6586,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6560,7 +6597,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -6571,7 +6608,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -6582,7 +6619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -6593,7 +6630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>487</v>
       </c>
@@ -6604,7 +6641,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -6615,7 +6652,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>487</v>
       </c>
@@ -6626,7 +6663,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -6637,7 +6674,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -6648,7 +6685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -6659,7 +6696,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -6670,7 +6707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -6681,7 +6718,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6692,62 +6729,62 @@
         <v>533</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>397</v>
       </c>
       <c r="B39" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
         <v>535</v>
       </c>
-      <c r="C39" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" t="s">
-        <v>429</v>
-      </c>
-      <c r="C40" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -6758,62 +6795,62 @@
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
         <v>542</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>232</v>
       </c>
       <c r="C47" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
         <v>546</v>
       </c>
-      <c r="C48" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>547</v>
       </c>
       <c r="C49" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -6824,73 +6861,73 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
       <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
         <v>551</v>
       </c>
-      <c r="C51" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>552</v>
       </c>
       <c r="C52" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>554</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>555</v>
       </c>
       <c r="C55" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>557</v>
       </c>
-      <c r="C56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -6901,103 +6938,92 @@
         <v>559</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
         <v>560</v>
       </c>
-      <c r="C58" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>561</v>
       </c>
       <c r="C59" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>95</v>
       </c>
       <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
         <v>563</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>458</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>458</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>565</v>
       </c>
       <c r="C63" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>458</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>567</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="18" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D086D9D2-53AF-461C-8FD2-3E9132D5119C}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0383A6E0-75FD-4B37-AD9C-755718A37827}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="14235" yWindow="390" windowWidth="12420" windowHeight="15210" firstSheet="1" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -2235,12 +2235,12 @@
       <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="70.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>267</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>458</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>359</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>458</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>458</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>399</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>399</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>399</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>458</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>399</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>458</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>458</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>399</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>458</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>458</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>260</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>260</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>260</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>399</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>399</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>300</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>458</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>458</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>307</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>95</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>277</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>264</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>264</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>42</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>492</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>42</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>492</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>42</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>399</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>88</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>42</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>42</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>42</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>88</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>42</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>42</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>42</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>42</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>42</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>42</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>24</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>24</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>277</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>285</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>333</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>326</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>326</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>88</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>88</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>88</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>326</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>326</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>326</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>326</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>293</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>293</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>92</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>289</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>59</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>331</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>287</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>310</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>40</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>280</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>362</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>40</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>389</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>330</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>271</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>271</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>271</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>491</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>229</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>487</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>323</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>323</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>486</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>296</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>109</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>109</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>486</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>486</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>487</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>364</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>364</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>316</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>487</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>487</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>487</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>486</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>488</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>488</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>83</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>83</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>83</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>83</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>83</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>83</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>310</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>100</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>69</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>69</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>69</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>69</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>72</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>72</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>267</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>87</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>87</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>39</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>39</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>39</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>261</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>261</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>274</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>274</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>39</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>39</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>31</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>31</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>31</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>283</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>283</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>20</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>20</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>36</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>36</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>109</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>109</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>67</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>67</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>67</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>67</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>67</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>67</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>67</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>67</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>109</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>67</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>67</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>67</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>292</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>240</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>240</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>240</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>240</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>240</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>240</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>317</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>317</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>327</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>327</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>50</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>272</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>358</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>370</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>398</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>36</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>72</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>72</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>437</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>320</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>59</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>59</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>433</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>397</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>397</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>326</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>438</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>439</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>434</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>296</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>435</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>436</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>570</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>61</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>326</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>570</v>
       </c>
@@ -4297,24 +4297,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="70.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="70.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="41.59765625" customWidth="1"/>
-    <col min="4" max="4" width="31.73046875" customWidth="1"/>
-    <col min="5" max="5" width="43.73046875" customWidth="1"/>
-    <col min="6" max="6" width="38.73046875" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>338</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>338</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>338</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>338</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>338</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>338</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>337</v>
       </c>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>337</v>
       </c>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>337</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>337</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>337</v>
       </c>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>337</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>337</v>
       </c>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>337</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>337</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>337</v>
       </c>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>337</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>337</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>337</v>
       </c>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>337</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>337</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>337</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>337</v>
       </c>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>337</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>337</v>
       </c>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>337</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>337</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>337</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>337</v>
       </c>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>337</v>
       </c>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>337</v>
       </c>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>337</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>337</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>337</v>
       </c>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>337</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>338</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>338</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>338</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>338</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>338</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>338</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>338</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>338</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>338</v>
       </c>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>338</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>338</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>338</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>338</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>338</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>338</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>338</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>338</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>338</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>338</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>337</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>338</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>338</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>337</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>338</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>337</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>338</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>338</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>338</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>338</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>338</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>338</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>337</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>337</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>337</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>337</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>337</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>338</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>338</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>337</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>337</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>338</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>337</v>
       </c>
@@ -6281,7 +6281,7 @@
   <autoFilter ref="A1:H82" xr:uid="{CD16DA9A-CBD5-4A81-9BAB-93F15106FEF8}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Juncetea maritimi"/>
+        <filter val="Epilobietea angustifolii"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6300,18 +6300,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D13668-5AFE-4B9C-AD33-502416580960}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1328125" customWidth="1"/>
-    <col min="2" max="2" width="59.265625" customWidth="1"/>
-    <col min="3" max="3" width="92.265625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>486</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>486</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>487</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>487</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>399</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>397</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>264</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>458</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>458</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>458</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>100</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>20</v>
       </c>

--- a/data/urban-sintaxa.xlsx
+++ b/data/urban-sintaxa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0383A6E0-75FD-4B37-AD9C-755718A37827}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{3441573B-DF2B-487A-8168-630E16E41485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948D7C5C-D3AB-46A6-93F2-018494875933}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="390" windowWidth="12420" windowHeight="15210" firstSheet="1" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{3E21F8F6-C114-4632-89DF-E4FB12EA9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sintaxones SIVIM" sheetId="2" r:id="rId1"/>
@@ -6300,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D13668-5AFE-4B9C-AD33-502416580960}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
